--- a/data/hotels_by_city/Dallas/Dallas_shard_696.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_696.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="317">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,845 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r483552491-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>98685</t>
+  </si>
+  <si>
+    <t>483552491</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"STAY" away from Stay Express Inn - Fair Park Dallas </t>
+  </si>
+  <si>
+    <t>STAY AWAY!!!! Way too noisy RIGHT NEXT to Hwy 30 !!!  No pool!!!  as stated in their on line adds!!! False advertising!!!!                               Dirty/stained- parking lot, carpets, towels and bedding!!!  As I'm sure already stated on here ANYWHERE else would be better!!! Rude people  behind counter, nasty coffee , no HBO etc... no microwave in my room, coffee maker is a joke and DANGEROUS!!! Stopped working on the second day!!! Read the rest on the pic I sent!!!</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r476220381-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>476220381</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overrated, rubbish rooms </t>
+  </si>
+  <si>
+    <t>I stayed here for 2 nights during a roadtrip with my dad. We first arrived and it looked fine, free parking and plenty of it, with a Denny's directly next door. We checked in and the girl on the desk just didn't care, she was on one phone to her friend and another phone to a customer, while ignoring us and changing the TV channel. There were about 4 words exchanged with her at check in and she didn't even confirm our price. We got to the room and it was completely outdated, the bath and fridge were dirty and the toilet didn't flush. We went back to the desk to ask for a room change and the woman gave us 2 more sets of keys to choose a room. One room was exactly the same as a first and then the second was more up to date - a laminate floor and a retiled bathroom - but no fridge. We asked the girl at the desk if she could get a fridge in the room, to which she muttered something strange about having cheap labour and they could move the fridge, and we moved into that room. The beds were fine but we didn't have the free breakfast as it only looked like a bit of coffee and cereal. We had some "fresh orange" which just tasted like orange gatorade and definitely was not fresh orange. The rating would...I stayed here for 2 nights during a roadtrip with my dad. We first arrived and it looked fine, free parking and plenty of it, with a Denny's directly next door. We checked in and the girl on the desk just didn't care, she was on one phone to her friend and another phone to a customer, while ignoring us and changing the TV channel. There were about 4 words exchanged with her at check in and she didn't even confirm our price. We got to the room and it was completely outdated, the bath and fridge were dirty and the toilet didn't flush. We went back to the desk to ask for a room change and the woman gave us 2 more sets of keys to choose a room. One room was exactly the same as a first and then the second was more up to date - a laminate floor and a retiled bathroom - but no fridge. We asked the girl at the desk if she could get a fridge in the room, to which she muttered something strange about having cheap labour and they could move the fridge, and we moved into that room. The beds were fine but we didn't have the free breakfast as it only looked like a bit of coffee and cereal. We had some "fresh orange" which just tasted like orange gatorade and definitely was not fresh orange. The rating would probably have been a 1 if we had had to stay in the first room.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 nights during a roadtrip with my dad. We first arrived and it looked fine, free parking and plenty of it, with a Denny's directly next door. We checked in and the girl on the desk just didn't care, she was on one phone to her friend and another phone to a customer, while ignoring us and changing the TV channel. There were about 4 words exchanged with her at check in and she didn't even confirm our price. We got to the room and it was completely outdated, the bath and fridge were dirty and the toilet didn't flush. We went back to the desk to ask for a room change and the woman gave us 2 more sets of keys to choose a room. One room was exactly the same as a first and then the second was more up to date - a laminate floor and a retiled bathroom - but no fridge. We asked the girl at the desk if she could get a fridge in the room, to which she muttered something strange about having cheap labour and they could move the fridge, and we moved into that room. The beds were fine but we didn't have the free breakfast as it only looked like a bit of coffee and cereal. We had some "fresh orange" which just tasted like orange gatorade and definitely was not fresh orange. The rating would...I stayed here for 2 nights during a roadtrip with my dad. We first arrived and it looked fine, free parking and plenty of it, with a Denny's directly next door. We checked in and the girl on the desk just didn't care, she was on one phone to her friend and another phone to a customer, while ignoring us and changing the TV channel. There were about 4 words exchanged with her at check in and she didn't even confirm our price. We got to the room and it was completely outdated, the bath and fridge were dirty and the toilet didn't flush. We went back to the desk to ask for a room change and the woman gave us 2 more sets of keys to choose a room. One room was exactly the same as a first and then the second was more up to date - a laminate floor and a retiled bathroom - but no fridge. We asked the girl at the desk if she could get a fridge in the room, to which she muttered something strange about having cheap labour and they could move the fridge, and we moved into that room. The beds were fine but we didn't have the free breakfast as it only looked like a bit of coffee and cereal. We had some "fresh orange" which just tasted like orange gatorade and definitely was not fresh orange. The rating would probably have been a 1 if we had had to stay in the first room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r451052911-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>451052911</t>
+  </si>
+  <si>
+    <t>01/10/2017</t>
+  </si>
+  <si>
+    <t>Lakeland</t>
+  </si>
+  <si>
+    <t>Overall good!!!!!!! Would stay there again. Well worth the money! &amp;$$! Bdgbflcokncb nsicknbshhncjdkkdons. Dudnndhhx uucnbfjujdudjjwhfivnbrjjcnciiehhxjdiidufijriejbdiufbrjddhudjdjejdijehwdjhfjdiiejeidjjej</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r364704671-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>364704671</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel for price. </t>
+  </si>
+  <si>
+    <t>It was our first time staying in Dallas. We went for a concert at the house of blues. This hotel was inexpensive, so that was a plus. We walked into the room and was very surprised that it was very nice and clean! It conviently has a resturaunt and gas station next door. The free breakfast was not anything special. Customer service was great &amp; friendly. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>caregrouphp, Manager at Stay Express Inn Dallas - Fair Park / Downtown, responded to this reviewResponded May 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2016</t>
+  </si>
+  <si>
+    <t>It was our first time staying in Dallas. We went for a concert at the house of blues. This hotel was inexpensive, so that was a plus. We walked into the room and was very surprised that it was very nice and clean! It conviently has a resturaunt and gas station next door. The free breakfast was not anything special. Customer service was great &amp; friendly. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r356526105-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>356526105</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>Won't stay again!</t>
+  </si>
+  <si>
+    <t>I thought I booked a hotel but definitely a motel.  The room smelled but I can tell you what the smell was.  We got up for breakfast that is from 6a-9a but there was literally one piece of bread left and that's it.  Very disappointing.The only solace was the bed was comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I thought I booked a hotel but definitely a motel.  The room smelled but I can tell you what the smell was.  We got up for breakfast that is from 6a-9a but there was literally one piece of bread left and that's it.  Very disappointing.The only solace was the bed was comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r309361317-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>309361317</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>Need plugs to work beside bed so cell phone and lap top computer can be plugged in. The first room we was assigned to was not cleaned yet. We returned to the front desk and was given a different room.  MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Harry P, Manager at Stay Express Inn Dallas - Fair Park / Downtown, responded to this reviewResponded October 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2015</t>
+  </si>
+  <si>
+    <t>Need plugs to work beside bed so cell phone and lap top computer can be plugged in. The first room we was assigned to was not cleaned yet. We returned to the front desk and was given a different room.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r255676478-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>255676478</t>
+  </si>
+  <si>
+    <t>02/21/2015</t>
+  </si>
+  <si>
+    <t>First time</t>
+  </si>
+  <si>
+    <t>This was my first time staying at this hotel.  It was very nice and clean, the bed was comfortable.  For a older hotel it has been up dated very well.  The hotel staff was very nice, as was the breakfast.  I will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Harry P, Manager at Stay Express Inn Dallas - Fair Park / Downtown, responded to this reviewResponded March 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2015</t>
+  </si>
+  <si>
+    <t>This was my first time staying at this hotel.  It was very nice and clean, the bed was comfortable.  For a older hotel it has been up dated very well.  The hotel staff was very nice, as was the breakfast.  I will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r234017473-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>234017473</t>
+  </si>
+  <si>
+    <t>10/12/2014</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>Checked in on October 10,2014. Room had 1/2 a roll of toilet tissue and no extra roll, requested a roll of ,toilet tissue and one extra set of towels. They were never delivered. Unable to call front desk due to no phone in the room. Went downstairs Saturday morning and made another request and finally both were delivered. Some of the towels already in the room were dirty and one of the comforters had a hole in it. Sheets had stains and comforter had noticeable stains. Room was not cleaned on Saturday even though we were gone from 11am - 5pm. Had to walk downstairs (no phone in room) and request towels and that trash be removed. The parking spot closest to the north stairs is also closet to back entrance of front desk. When not occupied by the same black Toyota Camry, an orange cone is placed to block anyone from utilizing the spot. I assume it is an employee and find this beyond rude, selfish and thoughtless. No discount for room not being cleaned. This location has ruined our view of Quality Inn. Will NOT patronize any Quality Inn again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Harry P, Manager at Stay Express Inn Dallas - Fair Park / Downtown, responded to this reviewResponded November 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2014</t>
+  </si>
+  <si>
+    <t>Checked in on October 10,2014. Room had 1/2 a roll of toilet tissue and no extra roll, requested a roll of ,toilet tissue and one extra set of towels. They were never delivered. Unable to call front desk due to no phone in the room. Went downstairs Saturday morning and made another request and finally both were delivered. Some of the towels already in the room were dirty and one of the comforters had a hole in it. Sheets had stains and comforter had noticeable stains. Room was not cleaned on Saturday even though we were gone from 11am - 5pm. Had to walk downstairs (no phone in room) and request towels and that trash be removed. The parking spot closest to the north stairs is also closet to back entrance of front desk. When not occupied by the same black Toyota Camry, an orange cone is placed to block anyone from utilizing the spot. I assume it is an employee and find this beyond rude, selfish and thoughtless. No discount for room not being cleaned. This location has ruined our view of Quality Inn. Will NOT patronize any Quality Inn again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r225786873-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>225786873</t>
+  </si>
+  <si>
+    <t>08/31/2014</t>
+  </si>
+  <si>
+    <t>Mildew Smell</t>
+  </si>
+  <si>
+    <t>I literally just left this property today, had to leave. The mildew smell in Room #122 was overwhelming to say the least.  Too add to my nightmare experience, let me further expound on the poor services provided by his property.   I like my room cool while I sleep, and since this property had no bed comforters or blankets on the bed, I called the front desk to request one. The desk attendant told me that they didn't offer guest comforters or blankets, can you believe that, and he brought to my room a mattress cover and a hand full of sheets and said that was all he had to offer and that they didn't offer guest comforters or blankets, WOW.........Not to mention this room is across the hall from the maid service laundry room and the noise of the maid service staff and apparently their children woke me up early this morning with their loud laughter and playing right outside my door.  You need to avoid this property at all cost stay at one of the many properties in the area,MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Harry P, Manager at Stay Express Inn Dallas - Fair Park / Downtown, responded to this reviewResponded September 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2014</t>
+  </si>
+  <si>
+    <t>I literally just left this property today, had to leave. The mildew smell in Room #122 was overwhelming to say the least.  Too add to my nightmare experience, let me further expound on the poor services provided by his property.   I like my room cool while I sleep, and since this property had no bed comforters or blankets on the bed, I called the front desk to request one. The desk attendant told me that they didn't offer guest comforters or blankets, can you believe that, and he brought to my room a mattress cover and a hand full of sheets and said that was all he had to offer and that they didn't offer guest comforters or blankets, WOW.........Not to mention this room is across the hall from the maid service laundry room and the noise of the maid service staff and apparently their children woke me up early this morning with their loud laughter and playing right outside my door.  You need to avoid this property at all cost stay at one of the many properties in the area,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r211751685-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>211751685</t>
+  </si>
+  <si>
+    <t>06/23/2014</t>
+  </si>
+  <si>
+    <t>the best trip ever!!!!!!!!!!!!!!!!! ^o^</t>
+  </si>
+  <si>
+    <t>this was the best trip ever!!!!!! the breakfast was VERY good... The ladies in the front desk were very nice and had a great personality. and the best of all FREE WIFI!!! ^0^ the room was very clean and smelled really great. the towels were very clean too. well I had a great time, and im exited for our next stay at this hotel.... ^-^ &lt;3MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Harry P, Manager at Stay Express Inn Dallas - Fair Park / Downtown, responded to this reviewResponded June 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2014</t>
+  </si>
+  <si>
+    <t>this was the best trip ever!!!!!! the breakfast was VERY good... The ladies in the front desk were very nice and had a great personality. and the best of all FREE WIFI!!! ^0^ the room was very clean and smelled really great. the towels were very clean too. well I had a great time, and im exited for our next stay at this hotel.... ^-^ &lt;3More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r209453777-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>209453777</t>
+  </si>
+  <si>
+    <t>06/08/2014</t>
+  </si>
+  <si>
+    <t>Our second stay</t>
+  </si>
+  <si>
+    <t>We stayed here the second time for one night in November 2013.The booking from Germany was without a problem.Our room was clean and spacious.We got a good breakfast in the morning.The neighborhood was calm and it seems safe.We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Harry P, Manager at Stay Express Inn Dallas - Fair Park / Downtown, responded to this reviewResponded June 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here the second time for one night in November 2013.The booking from Germany was without a problem.Our room was clean and spacious.We got a good breakfast in the morning.The neighborhood was calm and it seems safe.We would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r200410482-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>200410482</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>Not the greatest!!!!</t>
+  </si>
+  <si>
+    <t>Front desk people seemed very confused when we checked in.  I called for extra towels, but they were never delivered.  The room is in desperate need of some major upgrades.  Only bright spot-It was really cheap!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Harry P, Manager at Stay Express Inn Dallas - Fair Park / Downtown, responded to this reviewResponded April 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2014</t>
+  </si>
+  <si>
+    <t>Front desk people seemed very confused when we checked in.  I called for extra towels, but they were never delivered.  The room is in desperate need of some major upgrades.  Only bright spot-It was really cheap!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r196048840-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>196048840</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>Worst place I ever seen or heard about</t>
+  </si>
+  <si>
+    <t>I stayed here with two other rooms two years ago when it was LaQuinta for two weeks while I worked on the children's arboretum. I did not even git undresses this time the floors were so stained and dirty I slept with my boots on hanging off the bed. I looked this place up on your site after i was committed. I see you took the other review off the guy must of had the same room 250. I was to tired to leave and had to catch some sleep. Noisy all night long and those weren't fire crackers @ 2am. Took my boots off only in front of the shower. There was blood on my washcloth and on the back of the door. Look like crap on the walls.  I have stayed in some pretty unique places but this takes the cake.MoreShow less</t>
+  </si>
+  <si>
+    <t>Harry P, General Manager at Stay Express Inn Dallas - Fair Park / Downtown, responded to this reviewResponded March 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here with two other rooms two years ago when it was LaQuinta for two weeks while I worked on the children's arboretum. I did not even git undresses this time the floors were so stained and dirty I slept with my boots on hanging off the bed. I looked this place up on your site after i was committed. I see you took the other review off the guy must of had the same room 250. I was to tired to leave and had to catch some sleep. Noisy all night long and those weren't fire crackers @ 2am. Took my boots off only in front of the shower. There was blood on my washcloth and on the back of the door. Look like crap on the walls.  I have stayed in some pretty unique places but this takes the cake.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r179267877-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>179267877</t>
+  </si>
+  <si>
+    <t>09/30/2013</t>
+  </si>
+  <si>
+    <t>Very Bad Customer Service!</t>
+  </si>
+  <si>
+    <t>I have stayed in a lot of different hotels and I must say I have never experienced such awful customer service. Walking in and seeing 2 front desk ladies at the counter and not 1 welcomed me.  Had 1 young lady on her cell phone talking loud and saying provocative words, while the other young lady needing help checking in a guest.  And not to mention how they were dressed.  Both dressed in blue jeans, tank tops, and sandals, and 1 lady with a messy bun.  No communication what so ever with the guests.  I had to ask when was check out and where my room was located.  Someone should train their front desk staff a little better.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I have stayed in a lot of different hotels and I must say I have never experienced such awful customer service. Walking in and seeing 2 front desk ladies at the counter and not 1 welcomed me.  Had 1 young lady on her cell phone talking loud and saying provocative words, while the other young lady needing help checking in a guest.  And not to mention how they were dressed.  Both dressed in blue jeans, tank tops, and sandals, and 1 lady with a messy bun.  No communication what so ever with the guests.  I had to ask when was check out and where my room was located.  Someone should train their front desk staff a little better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r171393339-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>171393339</t>
+  </si>
+  <si>
+    <t>08/08/2013</t>
+  </si>
+  <si>
+    <t>Bad Neighborhood</t>
+  </si>
+  <si>
+    <t>My 17 yr. old walked to the corner convience mart, and while she was there, they were held up. The area is working class, and not somewhere I wish to take my family again. The A/C was frozen up upon our arrivial, and we were moved to another room. The second room has some sort of sticky residue on the bathroom tile. I would not reccomend this hotel.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r162518981-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>162518981</t>
+  </si>
+  <si>
+    <t>05/31/2013</t>
+  </si>
+  <si>
+    <t>Worst La Quinta</t>
+  </si>
+  <si>
+    <t>As the title indicates, this is the worst La Quinta I have ever stayed in.  
+First impressions are huge, and this place failed immediately.  I walked into the lobby, and there were two people at the check-in desk.  One person was helping another couple, the other was counting down her drawer.  There were a couple people ahead of me in line.  Upon seeing a lobby full of guests waiting to check in, does she pause her daily duty to help work through the line?  No.  She just keeps on counting her drawer.
+At one point, the woman actually helping guests leaves to go check on a room.  Other woman just keeps on counting her drawer, meaning that the lobby full of guests just stood there, with no one being helped.  Finally, she finishes counting her drawer and I think "Okay, she's ready to start helping now."  Wrong.  She clocks out and goes home.  This is a service industry job.  It doesn't matter what time your shift ends.  If it's busy, you stay.  
+On to the room.  Awful.  We walk in, and only one of the beds has pillows.  We tell housekeeping, who informs us she will have us pillows in ten minutes.  We hang around for a half hour, and nothing.  We go out, come home 8 hours later ready to sleep, and still no pillows.  
+Our non-smoking room reeked of cigarette smoke.  The paint was cracked and the moldings...As the title indicates, this is the worst La Quinta I have ever stayed in.  First impressions are huge, and this place failed immediately.  I walked into the lobby, and there were two people at the check-in desk.  One person was helping another couple, the other was counting down her drawer.  There were a couple people ahead of me in line.  Upon seeing a lobby full of guests waiting to check in, does she pause her daily duty to help work through the line?  No.  She just keeps on counting her drawer.At one point, the woman actually helping guests leaves to go check on a room.  Other woman just keeps on counting her drawer, meaning that the lobby full of guests just stood there, with no one being helped.  Finally, she finishes counting her drawer and I think "Okay, she's ready to start helping now."  Wrong.  She clocks out and goes home.  This is a service industry job.  It doesn't matter what time your shift ends.  If it's busy, you stay.  On to the room.  Awful.  We walk in, and only one of the beds has pillows.  We tell housekeeping, who informs us she will have us pillows in ten minutes.  We hang around for a half hour, and nothing.  We go out, come home 8 hours later ready to sleep, and still no pillows.  Our non-smoking room reeked of cigarette smoke.  The paint was cracked and the moldings were starting to come away from the walls.  The shower looked like something out of a horror movie.  The bathroom door, upon closing all the way, required a Juggernaut worthy effort to open.  My petite wife got stuck in there and I had to wrench the door open for her.  We went to get ice from the ice machine to fill a small personal cooler, and found that it was a mosquito breeding pool.  Deciding I didn't need malaria with my beverages, we opted to just buy ice from the corner store adjacent to the property.  A few positive things to mention:The woman who actually felt like doing her job that day was polite.  There's a Denny's on the property (though I give it no points for that since that's extremely common for a La Quinta) as well as a gas station with good selection of snacks and drinks.  It's conveniently located to the Starplex.  If you're not attending an event there though, the location isn't desirable. It's cheap.  None of that outweighs the bad, and I will not be staying here again.  Next time, I will just sack up and pay for a hotel downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>As the title indicates, this is the worst La Quinta I have ever stayed in.  
+First impressions are huge, and this place failed immediately.  I walked into the lobby, and there were two people at the check-in desk.  One person was helping another couple, the other was counting down her drawer.  There were a couple people ahead of me in line.  Upon seeing a lobby full of guests waiting to check in, does she pause her daily duty to help work through the line?  No.  She just keeps on counting her drawer.
+At one point, the woman actually helping guests leaves to go check on a room.  Other woman just keeps on counting her drawer, meaning that the lobby full of guests just stood there, with no one being helped.  Finally, she finishes counting her drawer and I think "Okay, she's ready to start helping now."  Wrong.  She clocks out and goes home.  This is a service industry job.  It doesn't matter what time your shift ends.  If it's busy, you stay.  
+On to the room.  Awful.  We walk in, and only one of the beds has pillows.  We tell housekeeping, who informs us she will have us pillows in ten minutes.  We hang around for a half hour, and nothing.  We go out, come home 8 hours later ready to sleep, and still no pillows.  
+Our non-smoking room reeked of cigarette smoke.  The paint was cracked and the moldings...As the title indicates, this is the worst La Quinta I have ever stayed in.  First impressions are huge, and this place failed immediately.  I walked into the lobby, and there were two people at the check-in desk.  One person was helping another couple, the other was counting down her drawer.  There were a couple people ahead of me in line.  Upon seeing a lobby full of guests waiting to check in, does she pause her daily duty to help work through the line?  No.  She just keeps on counting her drawer.At one point, the woman actually helping guests leaves to go check on a room.  Other woman just keeps on counting her drawer, meaning that the lobby full of guests just stood there, with no one being helped.  Finally, she finishes counting her drawer and I think "Okay, she's ready to start helping now."  Wrong.  She clocks out and goes home.  This is a service industry job.  It doesn't matter what time your shift ends.  If it's busy, you stay.  On to the room.  Awful.  We walk in, and only one of the beds has pillows.  We tell housekeeping, who informs us she will have us pillows in ten minutes.  We hang around for a half hour, and nothing.  We go out, come home 8 hours later ready to sleep, and still no pillows.  Our non-smoking room reeked of cigarette smoke.  The paint was cracked and the moldings were starting to come away from the walls.  The shower looked like something out of a horror movie.  The bathroom door, upon closing all the way, required a Juggernaut worthy effort to open.  My petite wife got stuck in there and I had to wrench the door open for her.  We went to get ice from the ice machine to fill a small personal cooler, and found that it was a mosquito breeding pool.  Deciding I didn't need malaria with my beverages, we opted to just buy ice from the corner store adjacent to the property.  A few positive things to mention:The woman who actually felt like doing her job that day was polite.  There's a Denny's on the property (though I give it no points for that since that's extremely common for a La Quinta) as well as a gas station with good selection of snacks and drinks.  It's conveniently located to the Starplex.  If you're not attending an event there though, the location isn't desirable. It's cheap.  None of that outweighs the bad, and I will not be staying here again.  Next time, I will just sack up and pay for a hotel downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r162095008-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>162095008</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>over all view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other than what i said in review i am satisfied but do feel that a micro-wave is needed in rooms. I already wrote about the bad experience that i had with my girl on the stay before last that i stayed at this location. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r161643408-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>161643408</t>
+  </si>
+  <si>
+    <t>05/23/2013</t>
+  </si>
+  <si>
+    <t>Pleasant surprise</t>
+  </si>
+  <si>
+    <t>Easy to find right off of exit.  The lady who checked us in was very nice and pleasant, said if we need anything call the front desk.  Even though the room was a little date it was very nice and clean.   The air conditioning worked great.  Was worried that the noise from the freeway would be loud but with the air conditioning on didn't notice it at all.  Breakfast was good plenty of food out not picked over.  Would stay there again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r158581884-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>158581884</t>
+  </si>
+  <si>
+    <t>04/23/2013</t>
+  </si>
+  <si>
+    <t>Great service and comfortable rooms!</t>
+  </si>
+  <si>
+    <t>This hotel was not in a great area but the stay was enjoyable. It was very comfortable and the rooms were of high quality. The service is unbeatable and I will be back regardless of the neighborhood. We had no issues while staying two nights.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r157147776-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>157147776</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Comfortable but a little run down</t>
+  </si>
+  <si>
+    <t>La Quinta is our go-to hotel when we are working festivals, and this is the one we stay in when working the North Texas Irish Festival. It's close to the fair grounds and its next door to a Denny's. This hotel is a two story motel style building that's a bit run down. The rooms are nice, but a little dingy. The hotel still offers its usual amenities, the complimentary breakfast buffet and the like, but we generally do take advantage of it here, as we prefer to have breakfast next door. Surprisingly, I find the beds here a little more comfortable than in some of the newer La Quinta's. The service here is also up to La Quinta's generally pretty good standards.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>La Quinta is our go-to hotel when we are working festivals, and this is the one we stay in when working the North Texas Irish Festival. It's close to the fair grounds and its next door to a Denny's. This hotel is a two story motel style building that's a bit run down. The rooms are nice, but a little dingy. The hotel still offers its usual amenities, the complimentary breakfast buffet and the like, but we generally do take advantage of it here, as we prefer to have breakfast next door. Surprisingly, I find the beds here a little more comfortable than in some of the newer La Quinta's. The service here is also up to La Quinta's generally pretty good standards.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r154550529-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>154550529</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Excellent room, decent breakfast</t>
+  </si>
+  <si>
+    <t>Just spent one night here, but the staff was very courteous in dealing with me and my 3 small children. The breakfast was typical for the price range of hotel, not great, but better than continental. The bed was comfortable, and the wall adjustment of the room temperature was nice so my kids couldn't change it. Room also had a fridge and microwave.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r149386753-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>149386753</t>
+  </si>
+  <si>
+    <t>01/10/2013</t>
+  </si>
+  <si>
+    <t>Nice stop with our pets</t>
+  </si>
+  <si>
+    <t>This La Quinta was convenient, clean and comfortable. We were traveling with a large dog and a cat and were surprised  by how easy it was to stay here. No extra charges, just a nice comfortable room. I would stay here again!</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r146242458-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>146242458</t>
+  </si>
+  <si>
+    <t>11/26/2012</t>
+  </si>
+  <si>
+    <t>Nice standard motel</t>
+  </si>
+  <si>
+    <t>This La Quinta has standard motel rooms, it was clean, and we had no objections and were satisfied. The continental breakfast was fine.Location - on the outskirts of Dallas, with only about a 10 min.drive downtown. There's a Denny's next door.Would probably stay again. But the city of Dallas was very uninteresting to say the least.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r145054388-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>145054388</t>
+  </si>
+  <si>
+    <t>11/09/2012</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>I stayed at this motel to attend the Texas State Fair and the Chillhuy Exhibit at the Dallas Arboretum. What a perfect location. The staff was extremely helpful and responded quickly to fix a few minor problems. Any time I go to Dallas this La Quint's will certainly be my motel of choice.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r140620460-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>140620460</t>
+  </si>
+  <si>
+    <t>09/18/2012</t>
+  </si>
+  <si>
+    <t>Great place to stop</t>
+  </si>
+  <si>
+    <t>The hotel is probably an older motel style, however the rooms were clean and comfortable. The staff friendly and helpful. The hotel is positioned close to attractions it is also in a quiet area. Breakfast was ok. The price was excellent on the whole this was a great place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r136508376-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>136508376</t>
+  </si>
+  <si>
+    <t>08/07/2012</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>Rooms were clean and nice.  Location was good with nice attractions in the area.  I will stay here again when in the area.  The hotel was easy on and off of the freeway.  The best thing about this hotel was location in the area I needed.  The price was fair.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r135706063-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>135706063</t>
+  </si>
+  <si>
+    <t>07/29/2012</t>
+  </si>
+  <si>
+    <t>The time of my life.</t>
+  </si>
+  <si>
+    <t>I had a very wonderful stay at this hotel. The daytime manager was the sweetest, most knowlegable people I have met at a hotel. I'm from Alabama and am very much accustomed to southern hospitality. Her personality made my home away from home a very pleasant one.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r131782300-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>131782300</t>
+  </si>
+  <si>
+    <t>06/11/2012</t>
+  </si>
+  <si>
+    <t>Conveniently Located Motel Near Arboretum</t>
+  </si>
+  <si>
+    <t>We were attending a wedding at the Dallas Arboretum, so this motel was close by and easy to access from the Interstate. We were disappointed that the pool was closed for repairs, a particular bummer because several of us attending the wedding were staying at this motel and were planning to hang out by the pool together. Our room, however, was clean and well-maintained, and there was not a lot of traffic noise from the Interstate, which was right outside our door. Breakfast was not much to write home about, and there was no cream for the coffee, so we ended up going out for breakfast. A perfectly acceptable roadside motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>We were attending a wedding at the Dallas Arboretum, so this motel was close by and easy to access from the Interstate. We were disappointed that the pool was closed for repairs, a particular bummer because several of us attending the wedding were staying at this motel and were planning to hang out by the pool together. Our room, however, was clean and well-maintained, and there was not a lot of traffic noise from the Interstate, which was right outside our door. Breakfast was not much to write home about, and there was no cream for the coffee, so we ended up going out for breakfast. A perfectly acceptable roadside motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r130924524-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>130924524</t>
+  </si>
+  <si>
+    <t>05/29/2012</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">really nice place to stay, very friendly staff, not noisy like it would seem and Dennys is just a few steps away!! </t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r130474055-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>130474055</t>
+  </si>
+  <si>
+    <t>05/23/2012</t>
+  </si>
+  <si>
+    <t>May overnight stay in Dallas</t>
+  </si>
+  <si>
+    <t>Stayed there as we were attending a wedding in the area. Excellent accomodations, friendly courteous service &amp; handy location. Great experience overall!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r125322118-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>125322118</t>
+  </si>
+  <si>
+    <t>02/27/2012</t>
+  </si>
+  <si>
+    <t>Just a place to sleep</t>
+  </si>
+  <si>
+    <t>This was a last minute trip and I just needed a place to sleep. Otherwise I would not have stayed. The noise from the highway was very loud and the towels were thin. The "free" breakfast was a joke. The car parked next to mine was broken into during the night.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r123329869-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>123329869</t>
+  </si>
+  <si>
+    <t>01/19/2012</t>
+  </si>
+  <si>
+    <t>Avoid if you can, don't be duped by cheaper price.</t>
+  </si>
+  <si>
+    <t>Room smelled bad and was annoying for sometime. Also, look of the hotel is dilapidated. The sink won't drain soon and got clogged every time we used it. Also, the interior was very old and so was the reception room, it looked like if you're checking in an old museum.....only positive point is for breakfast.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r97045960-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>97045960</t>
+  </si>
+  <si>
+    <t>02/17/2011</t>
+  </si>
+  <si>
+    <t>You'll want to cry when you get there, don't book.</t>
+  </si>
+  <si>
+    <t>My friends and I made a trip from Austin to go to a Dallas Mavs game.  This hotel seemed to be the most economical and yet maintain some class.... so we thought.  Got there and this place is literally falling down.  The balconies are bowed and don't look safe.  It's beyond ghetto.  Don't even book it, pay the extra $100 and get a suite at Embassy Suites Market Place, and get free made to order breakfast, free drinks and a lot more room and SAFETY!</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r36094721-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>36094721</t>
+  </si>
+  <si>
+    <t>07/28/2009</t>
+  </si>
+  <si>
+    <t>Old but quiet and clean and inexpensive.</t>
+  </si>
+  <si>
+    <t>The Good: This is an inexpensive older hotel in and older, somewhat deteriorated area. The hotel is well maintained and the rooms are well kept inside. Very clean. The bed was firm, perhaps overly so. There was a microfridge and a large TV. Close to the Cottonbowl stadium and downtown Dallas. Close to Baylor Hospital which was why we chose it. Several discount rates for seniors, AARP, and hospital rate, Walmart etc I was told by one of the clerks and saw on the website. 
+The Bad: The wireless internet was not strong enough to be reliable and there was no hardwired port in the room. My computer was useless in the room. Fortunately I had 3g wireless available. The breakfast which is hyped on the LaQuinta website was really kind of pathetic. Minimal or no protein. There is a Dennys adjacent to the property, but nothing to brag about there either. Be prepared to enjoy your bowl of cereal, lowfat muffin and toast. The coffee is good. 
+Neutral: This is right off Interstate 30 and that is a busy and loud highway. I could barely hear the traffic inside the room, and with the room air turned on, it didn't really bother me. Others have noted that if someone is upstairs, you can hear them clomping through their rooms. The first night we had this with some children overhead, but soon they quieted down. They have an older style...The Good: This is an inexpensive older hotel in and older, somewhat deteriorated area. The hotel is well maintained and the rooms are well kept inside. Very clean. The bed was firm, perhaps overly so. There was a microfridge and a large TV. Close to the Cottonbowl stadium and downtown Dallas. Close to Baylor Hospital which was why we chose it. Several discount rates for seniors, AARP, and hospital rate, Walmart etc I was told by one of the clerks and saw on the website. The Bad: The wireless internet was not strong enough to be reliable and there was no hardwired port in the room. My computer was useless in the room. Fortunately I had 3g wireless available. The breakfast which is hyped on the LaQuinta website was really kind of pathetic. Minimal or no protein. There is a Dennys adjacent to the property, but nothing to brag about there either. Be prepared to enjoy your bowl of cereal, lowfat muffin and toast. The coffee is good. Neutral: This is right off Interstate 30 and that is a busy and loud highway. I could barely hear the traffic inside the room, and with the room air turned on, it didn't really bother me. Others have noted that if someone is upstairs, you can hear them clomping through their rooms. The first night we had this with some children overhead, but soon they quieted down. They have an older style room lock, plastic key with holes. I have heard that the locks are not changed from visitor to visitor, so someone could keep the plastic key and enter a room. They should really upgrade this hotel to the newer electronic locks.I had some problems at check-in, the night clerk wouldn't give me the senior rate without an AARP card. I told him I signed up through the website at the Senior rate. I finally showed him the website on my iPhone (I love my iPhone), and he relented and gave me the rate. The day clerks and another night clerk had no problem and knew about all their discounts.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>The Good: This is an inexpensive older hotel in and older, somewhat deteriorated area. The hotel is well maintained and the rooms are well kept inside. Very clean. The bed was firm, perhaps overly so. There was a microfridge and a large TV. Close to the Cottonbowl stadium and downtown Dallas. Close to Baylor Hospital which was why we chose it. Several discount rates for seniors, AARP, and hospital rate, Walmart etc I was told by one of the clerks and saw on the website. 
+The Bad: The wireless internet was not strong enough to be reliable and there was no hardwired port in the room. My computer was useless in the room. Fortunately I had 3g wireless available. The breakfast which is hyped on the LaQuinta website was really kind of pathetic. Minimal or no protein. There is a Dennys adjacent to the property, but nothing to brag about there either. Be prepared to enjoy your bowl of cereal, lowfat muffin and toast. The coffee is good. 
+Neutral: This is right off Interstate 30 and that is a busy and loud highway. I could barely hear the traffic inside the room, and with the room air turned on, it didn't really bother me. Others have noted that if someone is upstairs, you can hear them clomping through their rooms. The first night we had this with some children overhead, but soon they quieted down. They have an older style...The Good: This is an inexpensive older hotel in and older, somewhat deteriorated area. The hotel is well maintained and the rooms are well kept inside. Very clean. The bed was firm, perhaps overly so. There was a microfridge and a large TV. Close to the Cottonbowl stadium and downtown Dallas. Close to Baylor Hospital which was why we chose it. Several discount rates for seniors, AARP, and hospital rate, Walmart etc I was told by one of the clerks and saw on the website. The Bad: The wireless internet was not strong enough to be reliable and there was no hardwired port in the room. My computer was useless in the room. Fortunately I had 3g wireless available. The breakfast which is hyped on the LaQuinta website was really kind of pathetic. Minimal or no protein. There is a Dennys adjacent to the property, but nothing to brag about there either. Be prepared to enjoy your bowl of cereal, lowfat muffin and toast. The coffee is good. Neutral: This is right off Interstate 30 and that is a busy and loud highway. I could barely hear the traffic inside the room, and with the room air turned on, it didn't really bother me. Others have noted that if someone is upstairs, you can hear them clomping through their rooms. The first night we had this with some children overhead, but soon they quieted down. They have an older style room lock, plastic key with holes. I have heard that the locks are not changed from visitor to visitor, so someone could keep the plastic key and enter a room. They should really upgrade this hotel to the newer electronic locks.I had some problems at check-in, the night clerk wouldn't give me the senior rate without an AARP card. I told him I signed up through the website at the Senior rate. I finally showed him the website on my iPhone (I love my iPhone), and he relented and gave me the rate. The day clerks and another night clerk had no problem and knew about all their discounts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r29763557-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>29763557</t>
+  </si>
+  <si>
+    <t>05/11/2009</t>
+  </si>
+  <si>
+    <t>clean but not what expected</t>
+  </si>
+  <si>
+    <t>The location was convenient for our trip from Arkansas to the Dallas Museum of Art.  The room was clean and the beds were adequate.  I was not, however, expecting a hotel with exterior rooms, which is what we got.  The walls are pretty thin and the building seems to shake when people were walking around.  We were on the 2nd floor (top floor) and I definitely felt the room moving as I was going to sleep thanks to some 20-something men in the room next to us.  The water pressure in the shower was quite weak and the manager seemed surprised when we commented on it.  The "high speed internet" was advertised, but according to a card in the room, there was only supposed to be wired access in the rooms - however I was unable to locate anywhere to plug into.  We finally got a very weak wireless signal, but it was not at all reliable or fast.  I might stay here again without the kids, because of the value, but definitely not again with the kids.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>The location was convenient for our trip from Arkansas to the Dallas Museum of Art.  The room was clean and the beds were adequate.  I was not, however, expecting a hotel with exterior rooms, which is what we got.  The walls are pretty thin and the building seems to shake when people were walking around.  We were on the 2nd floor (top floor) and I definitely felt the room moving as I was going to sleep thanks to some 20-something men in the room next to us.  The water pressure in the shower was quite weak and the manager seemed surprised when we commented on it.  The "high speed internet" was advertised, but according to a card in the room, there was only supposed to be wired access in the rooms - however I was unable to locate anywhere to plug into.  We finally got a very weak wireless signal, but it was not at all reliable or fast.  I might stay here again without the kids, because of the value, but definitely not again with the kids.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r28891486-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>28891486</t>
+  </si>
+  <si>
+    <t>04/27/2009</t>
+  </si>
+  <si>
+    <t>Great Location, Great Price, Just Great!!</t>
+  </si>
+  <si>
+    <t>This hotel was in a great location! Easy access to quick travelers shopping  (walmart, sam's, cvs, etc.). Because you know we all end up forgetting something!! LOL!! This hotel also had easy access to the highway, which made it easier for us to get the the attractions we visited. They have a free continental breakfast which had a good variety.  Also they have a 24 hour Denny's next door, gas station on the corner and a McDonalds very close also.  We would definately use this hotel again if we travel to Dallas!</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r18675893-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>18675893</t>
+  </si>
+  <si>
+    <t>08/06/2008</t>
+  </si>
+  <si>
+    <t>Great Hotel - Great Deal!!</t>
+  </si>
+  <si>
+    <t>This property definitely needs an updated review, and I have it!  
+My husband and I were nicely impressed by this motel. We arrived in Dallas early in the morning, and check-in was not until 2 PM, but, wanting to make sure we knew how to get to the motel, we went ahead and drove over there.  
+The first thing we checked out was the neighborhood, since we saw a warning about it in a review from back in 2005. Neighborhoods apparently change greatly over 3 years – it seemed like a nice place, with no “weird” people or happenings going on in the area. You might expect a lot of “seedier” people to be hanging around here, just because it is a much more inexpensive motel, but I did not see anyone or anything that would fit that description.
+From the outside, the motel looked very nice and well-kept. This is definitely an older property, but it is obvious that La Quinta has gone a long way to keep it up.  The pool was very small, but it looked clean (we never used it - too busy).
+We wanted to go the Dallas Farmer’s Market, which we had directions to, but we needed directions to a bank first, so I went inside to ask for directions. The front desk clerk was immediately friendly and extremely helpful. She looked up directions for me on Google Maps and even printed them out...This property definitely needs an updated review, and I have it!  My husband and I were nicely impressed by this motel. We arrived in Dallas early in the morning, and check-in was not until 2 PM, but, wanting to make sure we knew how to get to the motel, we went ahead and drove over there.  The first thing we checked out was the neighborhood, since we saw a warning about it in a review from back in 2005. Neighborhoods apparently change greatly over 3 years – it seemed like a nice place, with no “weird” people or happenings going on in the area. You might expect a lot of “seedier” people to be hanging around here, just because it is a much more inexpensive motel, but I did not see anyone or anything that would fit that description.From the outside, the motel looked very nice and well-kept. This is definitely an older property, but it is obvious that La Quinta has gone a long way to keep it up.  The pool was very small, but it looked clean (we never used it - too busy).We wanted to go the Dallas Farmer’s Market, which we had directions to, but we needed directions to a bank first, so I went inside to ask for directions. The front desk clerk was immediately friendly and extremely helpful. She looked up directions for me on Google Maps and even printed them out for me. When I asked about check-in time, she informed me that she had rooms available right then, if I wanted to go ahead and check in!  Of course, I did! The clerk gave me a nice, friendly welcome to this motel.We nearly froze when we walked into our room – a nice surprise, since that meant the air conditioning definitely worked, although we made sure to warm it up quite a bit. The beds are smaller queen beds – but plenty roomy enough for everyone to fit. The 2nd bed is right next to the a/c unit, but that is to be expected in a motel room. In other words, this is not the Hilton – don’t expect to have all the room of a house! That said, we found we had plenty of room, and we definitely had to take up room, what with our toddler’s play pen (plenty of room to open it up and not trip over it), the surprise refrigerator, and all of our clothing/suitcases.  The vanity area is quite large by motel standards – there was more than enough room for me to set up the motel-provided ironing board with a walkway to the bathroom.  There is even a closet with folding doors for your hanging clothes.  That is where you will find the iron and ironing board.The best thing about our room: Everything was Clean!!!  I have stayed in many motels, and I often find dead bugs around the corners of the room (a hazard of having the door lead directly outside, I suppose, and a cleaning staff that doesn’t work so well).  At the La Quinta Inn Dallas-East, however, I did not run into that problem!  There were no bugs there for me to worry about my toddler picking up before I find them!Yes, this motel is right off the highway (I-30), so you will hear some highway noise, but it was very muted and did not bother us at all.  Someone previously mentioned a train being nearby, but we never heard nor saw any evidence of that.  Our room was very quiet.Although on the map this motel seemed a bit “off-the-beaten path,” it is amazingly close (considering the size of Dallas) to most of the things we wanted to visit, like the Farmer’s Market and Fair Park.  There are plenty of places to eat or get to supplies in the immediate vicinity, including a Denny’s and Exxon basically in the same parking lot, a McDonald’s, Walmart and Staples across the highway (easy to get to because of the set-up of the streets), etc.If you want a nice, inexpensive place to stay, that’s fairly close to most tourist attractions, I would most definitely recommend this La Quinta Inn!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>This property definitely needs an updated review, and I have it!  
+My husband and I were nicely impressed by this motel. We arrived in Dallas early in the morning, and check-in was not until 2 PM, but, wanting to make sure we knew how to get to the motel, we went ahead and drove over there.  
+The first thing we checked out was the neighborhood, since we saw a warning about it in a review from back in 2005. Neighborhoods apparently change greatly over 3 years – it seemed like a nice place, with no “weird” people or happenings going on in the area. You might expect a lot of “seedier” people to be hanging around here, just because it is a much more inexpensive motel, but I did not see anyone or anything that would fit that description.
+From the outside, the motel looked very nice and well-kept. This is definitely an older property, but it is obvious that La Quinta has gone a long way to keep it up.  The pool was very small, but it looked clean (we never used it - too busy).
+We wanted to go the Dallas Farmer’s Market, which we had directions to, but we needed directions to a bank first, so I went inside to ask for directions. The front desk clerk was immediately friendly and extremely helpful. She looked up directions for me on Google Maps and even printed them out...This property definitely needs an updated review, and I have it!  My husband and I were nicely impressed by this motel. We arrived in Dallas early in the morning, and check-in was not until 2 PM, but, wanting to make sure we knew how to get to the motel, we went ahead and drove over there.  The first thing we checked out was the neighborhood, since we saw a warning about it in a review from back in 2005. Neighborhoods apparently change greatly over 3 years – it seemed like a nice place, with no “weird” people or happenings going on in the area. You might expect a lot of “seedier” people to be hanging around here, just because it is a much more inexpensive motel, but I did not see anyone or anything that would fit that description.From the outside, the motel looked very nice and well-kept. This is definitely an older property, but it is obvious that La Quinta has gone a long way to keep it up.  The pool was very small, but it looked clean (we never used it - too busy).We wanted to go the Dallas Farmer’s Market, which we had directions to, but we needed directions to a bank first, so I went inside to ask for directions. The front desk clerk was immediately friendly and extremely helpful. She looked up directions for me on Google Maps and even printed them out for me. When I asked about check-in time, she informed me that she had rooms available right then, if I wanted to go ahead and check in!  Of course, I did! The clerk gave me a nice, friendly welcome to this motel.We nearly froze when we walked into our room – a nice surprise, since that meant the air conditioning definitely worked, although we made sure to warm it up quite a bit. The beds are smaller queen beds – but plenty roomy enough for everyone to fit. The 2nd bed is right next to the a/c unit, but that is to be expected in a motel room. In other words, this is not the Hilton – don’t expect to have all the room of a house! That said, we found we had plenty of room, and we definitely had to take up room, what with our toddler’s play pen (plenty of room to open it up and not trip over it), the surprise refrigerator, and all of our clothing/suitcases.  The vanity area is quite large by motel standards – there was more than enough room for me to set up the motel-provided ironing board with a walkway to the bathroom.  There is even a closet with folding doors for your hanging clothes.  That is where you will find the iron and ironing board.The best thing about our room: Everything was Clean!!!  I have stayed in many motels, and I often find dead bugs around the corners of the room (a hazard of having the door lead directly outside, I suppose, and a cleaning staff that doesn’t work so well).  At the La Quinta Inn Dallas-East, however, I did not run into that problem!  There were no bugs there for me to worry about my toddler picking up before I find them!Yes, this motel is right off the highway (I-30), so you will hear some highway noise, but it was very muted and did not bother us at all.  Someone previously mentioned a train being nearby, but we never heard nor saw any evidence of that.  Our room was very quiet.Although on the map this motel seemed a bit “off-the-beaten path,” it is amazingly close (considering the size of Dallas) to most of the things we wanted to visit, like the Farmer’s Market and Fair Park.  There are plenty of places to eat or get to supplies in the immediate vicinity, including a Denny’s and Exxon basically in the same parking lot, a McDonald’s, Walmart and Staples across the highway (easy to get to because of the set-up of the streets), etc.If you want a nice, inexpensive place to stay, that’s fairly close to most tourist attractions, I would most definitely recommend this La Quinta Inn!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r5938572-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>5938572</t>
+  </si>
+  <si>
+    <t>10/10/2006</t>
+  </si>
+  <si>
+    <t>clean, but with problems</t>
+  </si>
+  <si>
+    <t>My husband and I stayed one night at the La Quinta 10/08/06. We wanted something fairly close to Fair Park that was clean. This hotel met those requirements. On the downside this is a older property, which meant old beds, and breakfast not as good, or plentiful as most  La Quintas.  We checked in early with a friendly receptionist, since a king room was not available took 2 doubles. For you with children, this was older smaller beds. One of the beds was right up against the a/c unit. This bedroom was one of the smaller rooms I have been in, but the bathroom, vanity area was good -sized.  The room was clean, but this is not a good area of Dallas. I saw some rough people walking around, no one bothered us, but was not comfortable. It was ok for one night, but I would not stay here again.SammyMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2006</t>
+  </si>
+  <si>
+    <t>My husband and I stayed one night at the La Quinta 10/08/06. We wanted something fairly close to Fair Park that was clean. This hotel met those requirements. On the downside this is a older property, which meant old beds, and breakfast not as good, or plentiful as most  La Quintas.  We checked in early with a friendly receptionist, since a king room was not available took 2 doubles. For you with children, this was older smaller beds. One of the beds was right up against the a/c unit. This bedroom was one of the smaller rooms I have been in, but the bathroom, vanity area was good -sized.  The room was clean, but this is not a good area of Dallas. I saw some rough people walking around, no one bothered us, but was not comfortable. It was ok for one night, but I would not stay here again.SammyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r4828551-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>4828551</t>
+  </si>
+  <si>
+    <t>04/01/2006</t>
+  </si>
+  <si>
+    <t>Clean and quiet</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel Mar. 31-Apr. 1, 2006.  This is one of the cleanest motels I have ever stayed at.  Also very quiet considering it's close proximity to I-30.  The only noise I heard was someone's car alarm and the people walking above me one morning.  The continental breakfast looked adequate, although not being a breakfast eater, I did not try it.  The lobby coffee was good and they also provided an in-room coffemaker with both decaf and caffienated.  Great beds!  I definitely would stay here again.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1487,2553 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>74</v>
+      </c>
+      <c r="X6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>127</v>
+      </c>
+      <c r="X11" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>135</v>
+      </c>
+      <c r="O12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>136</v>
+      </c>
+      <c r="X12" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>145</v>
+      </c>
+      <c r="X13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>153</v>
+      </c>
+      <c r="X14" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" t="s">
+        <v>159</v>
+      </c>
+      <c r="L15" t="s">
+        <v>160</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>161</v>
+      </c>
+      <c r="O15" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>153</v>
+      </c>
+      <c r="X15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>168</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>175</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>174</v>
+      </c>
+      <c r="O18" t="s">
+        <v>182</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>174</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" t="s">
+        <v>190</v>
+      </c>
+      <c r="K20" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s">
+        <v>192</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>193</v>
+      </c>
+      <c r="O20" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" t="s">
+        <v>196</v>
+      </c>
+      <c r="K21" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>199</v>
+      </c>
+      <c r="O21" t="s">
+        <v>83</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" t="s">
+        <v>204</v>
+      </c>
+      <c r="L22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>206</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>208</v>
+      </c>
+      <c r="J23" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" t="s">
+        <v>211</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>212</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" t="s">
+        <v>215</v>
+      </c>
+      <c r="K24" t="s">
+        <v>216</v>
+      </c>
+      <c r="L24" t="s">
+        <v>217</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>218</v>
+      </c>
+      <c r="O24" t="s">
+        <v>67</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>220</v>
+      </c>
+      <c r="J25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s">
+        <v>223</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>224</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>226</v>
+      </c>
+      <c r="J26" t="s">
+        <v>227</v>
+      </c>
+      <c r="K26" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" t="s">
+        <v>229</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>231</v>
+      </c>
+      <c r="J27" t="s">
+        <v>232</v>
+      </c>
+      <c r="K27" t="s">
+        <v>233</v>
+      </c>
+      <c r="L27" t="s">
+        <v>234</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>235</v>
+      </c>
+      <c r="O27" t="s">
+        <v>67</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>236</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>237</v>
+      </c>
+      <c r="J28" t="s">
+        <v>238</v>
+      </c>
+      <c r="K28" t="s">
+        <v>239</v>
+      </c>
+      <c r="L28" t="s">
+        <v>240</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>241</v>
+      </c>
+      <c r="O28" t="s">
+        <v>182</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>243</v>
+      </c>
+      <c r="J29" t="s">
+        <v>244</v>
+      </c>
+      <c r="K29" t="s">
+        <v>245</v>
+      </c>
+      <c r="L29" t="s">
+        <v>246</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>247</v>
+      </c>
+      <c r="O29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>250</v>
+      </c>
+      <c r="J30" t="s">
+        <v>251</v>
+      </c>
+      <c r="K30" t="s">
+        <v>252</v>
+      </c>
+      <c r="L30" t="s">
+        <v>253</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>254</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>255</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>256</v>
+      </c>
+      <c r="J31" t="s">
+        <v>257</v>
+      </c>
+      <c r="K31" t="s">
+        <v>258</v>
+      </c>
+      <c r="L31" t="s">
+        <v>259</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>254</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>261</v>
+      </c>
+      <c r="J32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K32" t="s">
+        <v>263</v>
+      </c>
+      <c r="L32" t="s">
+        <v>264</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>265</v>
+      </c>
+      <c r="O32" t="s">
+        <v>83</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>266</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J33" t="s">
+        <v>268</v>
+      </c>
+      <c r="K33" t="s">
+        <v>269</v>
+      </c>
+      <c r="L33" t="s">
+        <v>270</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>271</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>272</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>273</v>
+      </c>
+      <c r="J34" t="s">
+        <v>274</v>
+      </c>
+      <c r="K34" t="s">
+        <v>275</v>
+      </c>
+      <c r="L34" t="s">
+        <v>276</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>277</v>
+      </c>
+      <c r="O34" t="s">
+        <v>175</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>278</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>279</v>
+      </c>
+      <c r="J35" t="s">
+        <v>280</v>
+      </c>
+      <c r="K35" t="s">
+        <v>281</v>
+      </c>
+      <c r="L35" t="s">
+        <v>282</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>283</v>
+      </c>
+      <c r="O35" t="s">
+        <v>67</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>285</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>286</v>
+      </c>
+      <c r="J36" t="s">
+        <v>287</v>
+      </c>
+      <c r="K36" t="s">
+        <v>288</v>
+      </c>
+      <c r="L36" t="s">
+        <v>289</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>290</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>292</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>293</v>
+      </c>
+      <c r="J37" t="s">
+        <v>294</v>
+      </c>
+      <c r="K37" t="s">
+        <v>295</v>
+      </c>
+      <c r="L37" t="s">
+        <v>296</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>297</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>298</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>299</v>
+      </c>
+      <c r="J38" t="s">
+        <v>300</v>
+      </c>
+      <c r="K38" t="s">
+        <v>301</v>
+      </c>
+      <c r="L38" t="s">
+        <v>302</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>303</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>305</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>306</v>
+      </c>
+      <c r="J39" t="s">
+        <v>307</v>
+      </c>
+      <c r="K39" t="s">
+        <v>308</v>
+      </c>
+      <c r="L39" t="s">
+        <v>309</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>310</v>
+      </c>
+      <c r="O39" t="s">
+        <v>67</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>312</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>313</v>
+      </c>
+      <c r="J40" t="s">
+        <v>314</v>
+      </c>
+      <c r="K40" t="s">
+        <v>315</v>
+      </c>
+      <c r="L40" t="s">
+        <v>316</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>316</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_696.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_696.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="353">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Nalgasaretan</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Hannah S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r476220381-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>I stayed here for 2 nights during a roadtrip with my dad. We first arrived and it looked fine, free parking and plenty of it, with a Denny's directly next door. We checked in and the girl on the desk just didn't care, she was on one phone to her friend and another phone to a customer, while ignoring us and changing the TV channel. There were about 4 words exchanged with her at check in and she didn't even confirm our price. We got to the room and it was completely outdated, the bath and fridge were dirty and the toilet didn't flush. We went back to the desk to ask for a room change and the woman gave us 2 more sets of keys to choose a room. One room was exactly the same as a first and then the second was more up to date - a laminate floor and a retiled bathroom - but no fridge. We asked the girl at the desk if she could get a fridge in the room, to which she muttered something strange about having cheap labour and they could move the fridge, and we moved into that room. The beds were fine but we didn't have the free breakfast as it only looked like a bit of coffee and cereal. We had some "fresh orange" which just tasted like orange gatorade and definitely was not fresh orange. The rating would...I stayed here for 2 nights during a roadtrip with my dad. We first arrived and it looked fine, free parking and plenty of it, with a Denny's directly next door. We checked in and the girl on the desk just didn't care, she was on one phone to her friend and another phone to a customer, while ignoring us and changing the TV channel. There were about 4 words exchanged with her at check in and she didn't even confirm our price. We got to the room and it was completely outdated, the bath and fridge were dirty and the toilet didn't flush. We went back to the desk to ask for a room change and the woman gave us 2 more sets of keys to choose a room. One room was exactly the same as a first and then the second was more up to date - a laminate floor and a retiled bathroom - but no fridge. We asked the girl at the desk if she could get a fridge in the room, to which she muttered something strange about having cheap labour and they could move the fridge, and we moved into that room. The beds were fine but we didn't have the free breakfast as it only looked like a bit of coffee and cereal. We had some "fresh orange" which just tasted like orange gatorade and definitely was not fresh orange. The rating would probably have been a 1 if we had had to stay in the first room.More</t>
   </si>
   <si>
+    <t>Latanya J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r451052911-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Shelly M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r364704671-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>It was our first time staying in Dallas. We went for a concert at the house of blues. This hotel was inexpensive, so that was a plus. We walked into the room and was very surprised that it was very nice and clean! It conviently has a resturaunt and gas station next door. The free breakfast was not anything special. Customer service was great &amp; friendly. More</t>
   </si>
   <si>
+    <t>Malissa S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r356526105-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>I thought I booked a hotel but definitely a motel.  The room smelled but I can tell you what the smell was.  We got up for breakfast that is from 6a-9a but there was literally one piece of bread left and that's it.  Very disappointing.The only solace was the bed was comfortable.More</t>
   </si>
   <si>
+    <t>587rickyh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r309361317-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -300,6 +318,9 @@
     <t>Need plugs to work beside bed so cell phone and lap top computer can be plugged in. The first room we was assigned to was not cleaned yet. We returned to the front desk and was given a different room.  More</t>
   </si>
   <si>
+    <t>William T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r255676478-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -327,6 +348,9 @@
     <t>This was my first time staying at this hotel.  It was very nice and clean, the bed was comfortable.  For a older hotel it has been up dated very well.  The hotel staff was very nice, as was the breakfast.  I will stay here again.More</t>
   </si>
   <si>
+    <t>courtbeajack</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r234017473-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -354,6 +378,9 @@
     <t>Checked in on October 10,2014. Room had 1/2 a roll of toilet tissue and no extra roll, requested a roll of ,toilet tissue and one extra set of towels. They were never delivered. Unable to call front desk due to no phone in the room. Went downstairs Saturday morning and made another request and finally both were delivered. Some of the towels already in the room were dirty and one of the comforters had a hole in it. Sheets had stains and comforter had noticeable stains. Room was not cleaned on Saturday even though we were gone from 11am - 5pm. Had to walk downstairs (no phone in room) and request towels and that trash be removed. The parking spot closest to the north stairs is also closet to back entrance of front desk. When not occupied by the same black Toyota Camry, an orange cone is placed to block anyone from utilizing the spot. I assume it is an employee and find this beyond rude, selfish and thoughtless. No discount for room not being cleaned. This location has ruined our view of Quality Inn. Will NOT patronize any Quality Inn again.More</t>
   </si>
   <si>
+    <t>Norbert L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r225786873-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -381,6 +408,9 @@
     <t>I literally just left this property today, had to leave. The mildew smell in Room #122 was overwhelming to say the least.  Too add to my nightmare experience, let me further expound on the poor services provided by his property.   I like my room cool while I sleep, and since this property had no bed comforters or blankets on the bed, I called the front desk to request one. The desk attendant told me that they didn't offer guest comforters or blankets, can you believe that, and he brought to my room a mattress cover and a hand full of sheets and said that was all he had to offer and that they didn't offer guest comforters or blankets, WOW.........Not to mention this room is across the hall from the maid service laundry room and the noise of the maid service staff and apparently their children woke me up early this morning with their loud laughter and playing right outside my door.  You need to avoid this property at all cost stay at one of the many properties in the area,More</t>
   </si>
   <si>
+    <t>mariah r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r211751685-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -408,6 +438,9 @@
     <t>this was the best trip ever!!!!!! the breakfast was VERY good... The ladies in the front desk were very nice and had a great personality. and the best of all FREE WIFI!!! ^0^ the room was very clean and smelled really great. the towels were very clean too. well I had a great time, and im exited for our next stay at this hotel.... ^-^ &lt;3More</t>
   </si>
   <si>
+    <t>Frank F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r209453777-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -435,6 +468,9 @@
     <t>We stayed here the second time for one night in November 2013.The booking from Germany was without a problem.Our room was clean and spacious.We got a good breakfast in the morning.The neighborhood was calm and it seems safe.We would stay here again.More</t>
   </si>
   <si>
+    <t>CKCameron</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r200410482-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -462,6 +498,9 @@
     <t>Front desk people seemed very confused when we checked in.  I called for extra towels, but they were never delivered.  The room is in desperate need of some major upgrades.  Only bright spot-It was really cheap!!!!More</t>
   </si>
   <si>
+    <t>Nevvverrrogin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r196048840-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -486,6 +525,9 @@
     <t>I stayed here with two other rooms two years ago when it was LaQuinta for two weeks while I worked on the children's arboretum. I did not even git undresses this time the floors were so stained and dirty I slept with my boots on hanging off the bed. I looked this place up on your site after i was committed. I see you took the other review off the guy must of had the same room 250. I was to tired to leave and had to catch some sleep. Noisy all night long and those weren't fire crackers @ 2am. Took my boots off only in front of the shower. There was blood on my washcloth and on the back of the door. Look like crap on the walls.  I have stayed in some pretty unique places but this takes the cake.More</t>
   </si>
   <si>
+    <t>Leticia M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r179267877-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -507,6 +549,9 @@
     <t>I have stayed in a lot of different hotels and I must say I have never experienced such awful customer service. Walking in and seeing 2 front desk ladies at the counter and not 1 welcomed me.  Had 1 young lady on her cell phone talking loud and saying provocative words, while the other young lady needing help checking in a guest.  And not to mention how they were dressed.  Both dressed in blue jeans, tank tops, and sandals, and 1 lady with a messy bun.  No communication what so ever with the guests.  I had to ask when was check out and where my room was located.  Someone should train their front desk staff a little better.More</t>
   </si>
   <si>
+    <t>Ihavethepower</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r171393339-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -523,6 +568,9 @@
   </si>
   <si>
     <t>June 2013</t>
+  </si>
+  <si>
+    <t>ExistenceNow</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r162518981-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
@@ -557,6 +605,9 @@
 Our non-smoking room reeked of cigarette smoke.  The paint was cracked and the moldings...As the title indicates, this is the worst La Quinta I have ever stayed in.  First impressions are huge, and this place failed immediately.  I walked into the lobby, and there were two people at the check-in desk.  One person was helping another couple, the other was counting down her drawer.  There were a couple people ahead of me in line.  Upon seeing a lobby full of guests waiting to check in, does she pause her daily duty to help work through the line?  No.  She just keeps on counting her drawer.At one point, the woman actually helping guests leaves to go check on a room.  Other woman just keeps on counting her drawer, meaning that the lobby full of guests just stood there, with no one being helped.  Finally, she finishes counting her drawer and I think "Okay, she's ready to start helping now."  Wrong.  She clocks out and goes home.  This is a service industry job.  It doesn't matter what time your shift ends.  If it's busy, you stay.  On to the room.  Awful.  We walk in, and only one of the beds has pillows.  We tell housekeeping, who informs us she will have us pillows in ten minutes.  We hang around for a half hour, and nothing.  We go out, come home 8 hours later ready to sleep, and still no pillows.  Our non-smoking room reeked of cigarette smoke.  The paint was cracked and the moldings were starting to come away from the walls.  The shower looked like something out of a horror movie.  The bathroom door, upon closing all the way, required a Juggernaut worthy effort to open.  My petite wife got stuck in there and I had to wrench the door open for her.  We went to get ice from the ice machine to fill a small personal cooler, and found that it was a mosquito breeding pool.  Deciding I didn't need malaria with my beverages, we opted to just buy ice from the corner store adjacent to the property.  A few positive things to mention:The woman who actually felt like doing her job that day was polite.  There's a Denny's on the property (though I give it no points for that since that's extremely common for a La Quinta) as well as a gas station with good selection of snacks and drinks.  It's conveniently located to the Starplex.  If you're not attending an event there though, the location isn't desirable. It's cheap.  None of that outweighs the bad, and I will not be staying here again.  Next time, I will just sack up and pay for a hotel downtown.More</t>
   </si>
   <si>
+    <t>A La Quinta traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r162095008-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -575,6 +626,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Lisa S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r161643408-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -608,6 +662,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Orion G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r157147776-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -629,6 +686,9 @@
     <t>La Quinta is our go-to hotel when we are working festivals, and this is the one we stay in when working the North Texas Irish Festival. It's close to the fair grounds and its next door to a Denny's. This hotel is a two story motel style building that's a bit run down. The rooms are nice, but a little dingy. The hotel still offers its usual amenities, the complimentary breakfast buffet and the like, but we generally do take advantage of it here, as we prefer to have breakfast next door. Surprisingly, I find the beds here a little more comfortable than in some of the newer La Quinta's. The service here is also up to La Quinta's generally pretty good standards.More</t>
   </si>
   <si>
+    <t>Kara L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r154550529-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -647,6 +707,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Zoey945</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r149386753-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -665,6 +728,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>RobertTravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r146242458-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -683,6 +749,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>TexasTerry45</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r145054388-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -701,6 +770,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>vicki g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r140620460-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -716,6 +788,9 @@
     <t>The hotel is probably an older motel style, however the rooms were clean and comfortable. The staff friendly and helpful. The hotel is positioned close to attractions it is also in a quiet area. Breakfast was ok. The price was excellent on the whole this was a great place to stay.</t>
   </si>
   <si>
+    <t>hogman32</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r136508376-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -752,6 +827,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>EBovary</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r131782300-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -773,6 +851,9 @@
     <t>We were attending a wedding at the Dallas Arboretum, so this motel was close by and easy to access from the Interstate. We were disappointed that the pool was closed for repairs, a particular bummer because several of us attending the wedding were staying at this motel and were planning to hang out by the pool together. Our room, however, was clean and well-maintained, and there was not a lot of traffic noise from the Interstate, which was right outside our door. Breakfast was not much to write home about, and there was no cream for the coffee, so we ended up going out for breakfast. A perfectly acceptable roadside motel.More</t>
   </si>
   <si>
+    <t>Rodney P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r130924524-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -791,6 +872,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>Janie G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r130474055-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -824,6 +908,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>VijGuy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r123329869-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -842,6 +929,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>Stephanie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r97045960-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -858,6 +948,9 @@
   </si>
   <si>
     <t>February 2011</t>
+  </si>
+  <si>
+    <t>luce_sociator</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r36094721-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
@@ -885,6 +978,9 @@
 Neutral: This is right off Interstate 30 and that is a busy and loud highway. I could barely hear the traffic inside the room, and with the room air turned on, it didn't really bother me. Others have noted that if someone is upstairs, you can hear them clomping through their rooms. The first night we had this with some children overhead, but soon they quieted down. They have an older style...The Good: This is an inexpensive older hotel in and older, somewhat deteriorated area. The hotel is well maintained and the rooms are well kept inside. Very clean. The bed was firm, perhaps overly so. There was a microfridge and a large TV. Close to the Cottonbowl stadium and downtown Dallas. Close to Baylor Hospital which was why we chose it. Several discount rates for seniors, AARP, and hospital rate, Walmart etc I was told by one of the clerks and saw on the website. The Bad: The wireless internet was not strong enough to be reliable and there was no hardwired port in the room. My computer was useless in the room. Fortunately I had 3g wireless available. The breakfast which is hyped on the LaQuinta website was really kind of pathetic. Minimal or no protein. There is a Dennys adjacent to the property, but nothing to brag about there either. Be prepared to enjoy your bowl of cereal, lowfat muffin and toast. The coffee is good. Neutral: This is right off Interstate 30 and that is a busy and loud highway. I could barely hear the traffic inside the room, and with the room air turned on, it didn't really bother me. Others have noted that if someone is upstairs, you can hear them clomping through their rooms. The first night we had this with some children overhead, but soon they quieted down. They have an older style room lock, plastic key with holes. I have heard that the locks are not changed from visitor to visitor, so someone could keep the plastic key and enter a room. They should really upgrade this hotel to the newer electronic locks.I had some problems at check-in, the night clerk wouldn't give me the senior rate without an AARP card. I told him I signed up through the website at the Senior rate. I finally showed him the website on my iPhone (I love my iPhone), and he relented and gave me the rate. The day clerks and another night clerk had no problem and knew about all their discounts.More</t>
   </si>
   <si>
+    <t>ArkansasMomOf3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r29763557-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -906,6 +1002,9 @@
     <t>The location was convenient for our trip from Arkansas to the Dallas Museum of Art.  The room was clean and the beds were adequate.  I was not, however, expecting a hotel with exterior rooms, which is what we got.  The walls are pretty thin and the building seems to shake when people were walking around.  We were on the 2nd floor (top floor) and I definitely felt the room moving as I was going to sleep thanks to some 20-something men in the room next to us.  The water pressure in the shower was quite weak and the manager seemed surprised when we commented on it.  The "high speed internet" was advertised, but according to a card in the room, there was only supposed to be wired access in the rooms - however I was unable to locate anywhere to plug into.  We finally got a very weak wireless signal, but it was not at all reliable or fast.  I might stay here again without the kids, because of the value, but definitely not again with the kids.More</t>
   </si>
   <si>
+    <t>ccslilqt6969</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r28891486-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -922,6 +1021,9 @@
   </si>
   <si>
     <t>April 2009</t>
+  </si>
+  <si>
+    <t>MissDusty</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r18675893-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
@@ -953,6 +1055,9 @@
 We wanted to go the Dallas Farmer’s Market, which we had directions to, but we needed directions to a bank first, so I went inside to ask for directions. The front desk clerk was immediately friendly and extremely helpful. She looked up directions for me on Google Maps and even printed them out...This property definitely needs an updated review, and I have it!  My husband and I were nicely impressed by this motel. We arrived in Dallas early in the morning, and check-in was not until 2 PM, but, wanting to make sure we knew how to get to the motel, we went ahead and drove over there.  The first thing we checked out was the neighborhood, since we saw a warning about it in a review from back in 2005. Neighborhoods apparently change greatly over 3 years – it seemed like a nice place, with no “weird” people or happenings going on in the area. You might expect a lot of “seedier” people to be hanging around here, just because it is a much more inexpensive motel, but I did not see anyone or anything that would fit that description.From the outside, the motel looked very nice and well-kept. This is definitely an older property, but it is obvious that La Quinta has gone a long way to keep it up.  The pool was very small, but it looked clean (we never used it - too busy).We wanted to go the Dallas Farmer’s Market, which we had directions to, but we needed directions to a bank first, so I went inside to ask for directions. The front desk clerk was immediately friendly and extremely helpful. She looked up directions for me on Google Maps and even printed them out for me. When I asked about check-in time, she informed me that she had rooms available right then, if I wanted to go ahead and check in!  Of course, I did! The clerk gave me a nice, friendly welcome to this motel.We nearly froze when we walked into our room – a nice surprise, since that meant the air conditioning definitely worked, although we made sure to warm it up quite a bit. The beds are smaller queen beds – but plenty roomy enough for everyone to fit. The 2nd bed is right next to the a/c unit, but that is to be expected in a motel room. In other words, this is not the Hilton – don’t expect to have all the room of a house! That said, we found we had plenty of room, and we definitely had to take up room, what with our toddler’s play pen (plenty of room to open it up and not trip over it), the surprise refrigerator, and all of our clothing/suitcases.  The vanity area is quite large by motel standards – there was more than enough room for me to set up the motel-provided ironing board with a walkway to the bathroom.  There is even a closet with folding doors for your hanging clothes.  That is where you will find the iron and ironing board.The best thing about our room: Everything was Clean!!!  I have stayed in many motels, and I often find dead bugs around the corners of the room (a hazard of having the door lead directly outside, I suppose, and a cleaning staff that doesn’t work so well).  At the La Quinta Inn Dallas-East, however, I did not run into that problem!  There were no bugs there for me to worry about my toddler picking up before I find them!Yes, this motel is right off the highway (I-30), so you will hear some highway noise, but it was very muted and did not bother us at all.  Someone previously mentioned a train being nearby, but we never heard nor saw any evidence of that.  Our room was very quiet.Although on the map this motel seemed a bit “off-the-beaten path,” it is amazingly close (considering the size of Dallas) to most of the things we wanted to visit, like the Farmer’s Market and Fair Park.  There are plenty of places to eat or get to supplies in the immediate vicinity, including a Denny’s and Exxon basically in the same parking lot, a McDonald’s, Walmart and Staples across the highway (easy to get to because of the set-up of the streets), etc.If you want a nice, inexpensive place to stay, that’s fairly close to most tourist attractions, I would most definitely recommend this La Quinta Inn!More</t>
   </si>
   <si>
+    <t>sammymd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r5938572-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -972,6 +1077,9 @@
   </si>
   <si>
     <t>My husband and I stayed one night at the La Quinta 10/08/06. We wanted something fairly close to Fair Park that was clean. This hotel met those requirements. On the downside this is a older property, which meant old beds, and breakfast not as good, or plentiful as most  La Quintas.  We checked in early with a friendly receptionist, since a king room was not available took 2 doubles. For you with children, this was older smaller beds. One of the beds was right up against the a/c unit. This bedroom was one of the smaller rooms I have been in, but the bathroom, vanity area was good -sized.  The room was clean, but this is not a good area of Dallas. I saw some rough people walking around, no one bothered us, but was not comfortable. It was ok for one night, but I would not stay here again.SammyMore</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r4828551-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
@@ -1491,43 +1599,47 @@
       <c r="A2" t="n">
         <v>5193</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>177925</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1541,50 +1653,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5193</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>703</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1598,50 +1714,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5193</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>177926</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1655,50 +1775,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5193</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>113571</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
         <v>70</v>
-      </c>
-      <c r="K5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" t="s">
-        <v>67</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1710,56 +1834,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5193</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>104826</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1771,56 +1899,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5193</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>177927</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -1842,56 +1974,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5193</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>6053</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1909,56 +2045,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5193</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>177928</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -1976,56 +2116,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5193</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>177929</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="O10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -2043,56 +2187,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="X10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="Y10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5193</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>177930</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2114,56 +2262,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="X11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Y11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5193</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>38063</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="O12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2175,56 +2327,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="X12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="Y12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5193</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>177931</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="J13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2236,47 +2392,51 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="X13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5193</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>177932</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
@@ -2303,56 +2463,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="X14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5193</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>108313</v>
+      </c>
+      <c r="C15" t="s">
+        <v>169</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="J15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="O15" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -2374,56 +2538,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="X15" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="Y15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5193</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>177933</v>
+      </c>
+      <c r="C16" t="s">
+        <v>177</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="K16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -2447,50 +2615,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5193</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>177179</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="O17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -2514,50 +2686,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5193</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C18" t="s">
+        <v>193</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="J18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="O18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -2581,50 +2757,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5193</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>2379</v>
+      </c>
+      <c r="C19" t="s">
+        <v>200</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2648,50 +2828,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5193</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C20" t="s">
+        <v>193</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="J20" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="K20" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="O20" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2715,50 +2899,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5193</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>177934</v>
+      </c>
+      <c r="C21" t="s">
+        <v>212</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="J21" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="O21" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2782,50 +2970,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5193</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>61655</v>
+      </c>
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="J22" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="K22" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2849,50 +3041,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5193</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>177935</v>
+      </c>
+      <c r="C23" t="s">
+        <v>227</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="J23" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="K23" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2916,50 +3112,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5193</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>177936</v>
+      </c>
+      <c r="C24" t="s">
+        <v>234</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="K24" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="O24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -2981,50 +3181,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5193</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>177937</v>
+      </c>
+      <c r="C25" t="s">
+        <v>241</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="J25" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="K25" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3048,41 +3252,45 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>5193</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>101489</v>
+      </c>
+      <c r="C26" t="s">
+        <v>248</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="J26" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="K26" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="L26" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
@@ -3101,50 +3309,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>5193</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>177938</v>
+      </c>
+      <c r="C27" t="s">
+        <v>254</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="J27" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="K27" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="O27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3168,50 +3380,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>5193</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C28" t="s">
+        <v>193</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="J28" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="K28" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="O28" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3235,50 +3451,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>5193</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>82778</v>
+      </c>
+      <c r="C29" t="s">
+        <v>267</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="J29" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="O29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3302,50 +3522,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>5193</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>177939</v>
+      </c>
+      <c r="C30" t="s">
+        <v>275</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="J30" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="K30" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3369,50 +3593,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>5193</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>177940</v>
+      </c>
+      <c r="C31" t="s">
+        <v>282</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="J31" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="K31" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3436,50 +3664,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>5193</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C32" t="s">
+        <v>193</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="J32" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="K32" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="L32" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="O32" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
@@ -3503,50 +3735,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>5193</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>177941</v>
+      </c>
+      <c r="C33" t="s">
+        <v>294</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="J33" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="K33" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="L33" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -3568,50 +3804,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>5193</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>1367</v>
+      </c>
+      <c r="C34" t="s">
+        <v>301</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="J34" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="K34" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="L34" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="O34" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -3635,50 +3875,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>5193</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>177942</v>
+      </c>
+      <c r="C35" t="s">
+        <v>308</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="J35" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="K35" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="L35" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="O35" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3702,50 +3946,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>5193</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>177943</v>
+      </c>
+      <c r="C36" t="s">
+        <v>316</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="J36" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="K36" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="L36" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -3769,50 +4017,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>5193</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>177944</v>
+      </c>
+      <c r="C37" t="s">
+        <v>324</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="J37" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="K37" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -3836,50 +4088,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>5193</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>177945</v>
+      </c>
+      <c r="C38" t="s">
+        <v>331</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="J38" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="K38" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="L38" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -3903,50 +4159,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>5193</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>177946</v>
+      </c>
+      <c r="C39" t="s">
+        <v>339</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="J39" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="K39" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="L39" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="O39" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
@@ -3970,41 +4230,45 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>5193</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>347</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="J40" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="K40" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="L40" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
@@ -4031,7 +4295,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_696.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_696.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="470">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Nalgasaretan</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r575971084-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>98685</t>
+  </si>
+  <si>
+    <t>575971084</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>Beautiful Property</t>
+  </si>
+  <si>
+    <t>This is one of the best express inn that i came across in Dallas downtown. Its on inter state well connected. Staff is good and the rooms are clean and provide free breakfast,Laundry facilities, Barbecue grill(s) also available. MoreShow less</t>
+  </si>
+  <si>
+    <t>Hiren P, Manager at Stay Express Inn Dallas - Fair Park / Downtown, responded to this reviewResponded May 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2018</t>
+  </si>
+  <si>
+    <t>This is one of the best express inn that i came across in Dallas downtown. Its on inter state well connected. Staff is good and the rooms are clean and provide free breakfast,Laundry facilities, Barbecue grill(s) also available. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r555257313-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>555257313</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Great experience for an overnight stay</t>
+  </si>
+  <si>
+    <t>My wife and I went to this hotel because of our experience with the Quality Inn brand, when we got there I found out that this hotel has been re-branded. Overall, I must say that my wife and I were pleased with our experience, the rooms was clean, and it was quiet in our area. If ever we are in this area again, I believe we will give it a go again!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Hiren P, Manager at Stay Express Inn Dallas - Fair Park / Downtown, responded to this reviewResponded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2018</t>
+  </si>
+  <si>
+    <t>My wife and I went to this hotel because of our experience with the Quality Inn brand, when we got there I found out that this hotel has been re-branded. Overall, I must say that my wife and I were pleased with our experience, the rooms was clean, and it was quiet in our area. If ever we are in this area again, I believe we will give it a go again!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r483552491-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>55711</t>
-  </si>
-  <si>
-    <t>98685</t>
-  </si>
-  <si>
     <t>483552491</t>
   </si>
   <si>
@@ -183,9 +234,6 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Hannah S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r476220381-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -207,9 +255,6 @@
     <t>I stayed here for 2 nights during a roadtrip with my dad. We first arrived and it looked fine, free parking and plenty of it, with a Denny's directly next door. We checked in and the girl on the desk just didn't care, she was on one phone to her friend and another phone to a customer, while ignoring us and changing the TV channel. There were about 4 words exchanged with her at check in and she didn't even confirm our price. We got to the room and it was completely outdated, the bath and fridge were dirty and the toilet didn't flush. We went back to the desk to ask for a room change and the woman gave us 2 more sets of keys to choose a room. One room was exactly the same as a first and then the second was more up to date - a laminate floor and a retiled bathroom - but no fridge. We asked the girl at the desk if she could get a fridge in the room, to which she muttered something strange about having cheap labour and they could move the fridge, and we moved into that room. The beds were fine but we didn't have the free breakfast as it only looked like a bit of coffee and cereal. We had some "fresh orange" which just tasted like orange gatorade and definitely was not fresh orange. The rating would...I stayed here for 2 nights during a roadtrip with my dad. We first arrived and it looked fine, free parking and plenty of it, with a Denny's directly next door. We checked in and the girl on the desk just didn't care, she was on one phone to her friend and another phone to a customer, while ignoring us and changing the TV channel. There were about 4 words exchanged with her at check in and she didn't even confirm our price. We got to the room and it was completely outdated, the bath and fridge were dirty and the toilet didn't flush. We went back to the desk to ask for a room change and the woman gave us 2 more sets of keys to choose a room. One room was exactly the same as a first and then the second was more up to date - a laminate floor and a retiled bathroom - but no fridge. We asked the girl at the desk if she could get a fridge in the room, to which she muttered something strange about having cheap labour and they could move the fridge, and we moved into that room. The beds were fine but we didn't have the free breakfast as it only looked like a bit of coffee and cereal. We had some "fresh orange" which just tasted like orange gatorade and definitely was not fresh orange. The rating would probably have been a 1 if we had had to stay in the first room.More</t>
   </si>
   <si>
-    <t>Latanya J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r451052911-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -228,10 +273,40 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Shelly M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r423045410-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>423045410</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>Absolutely pathetic.</t>
+  </si>
+  <si>
+    <t>The room stank of cigarettes and what not. The bathroom door wouldn't lock. The floor of the room was dirtier than the outside, very poor quality breakfast and the price isn't cheap as compared to other options either. This was the condition of both our rooms.Location wise - There's a Denny's and 7/11 right next to it. There are a lot more food joints across the street so food is not a big issue.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r417444055-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>417444055</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Walked in! Walked out!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The banner hanging from the top story should have been a sign. " tresspassers will be prosecuted to the fullest extent" and the cashier told my husband there was security 24/7 that patrols area. it was horrible! We walked into room, the stench of cigarettes was overwhelming. The bed cover was drawn back and it looked as if someone had just been sitting on the bed. There was a hole in the bedspread. Candy wrapper piece of paper on the floor. We walked in and walked right back out immediately! </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r364704671-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
@@ -261,9 +336,6 @@
     <t>It was our first time staying in Dallas. We went for a concert at the house of blues. This hotel was inexpensive, so that was a plus. We walked into the room and was very surprised that it was very nice and clean! It conviently has a resturaunt and gas station next door. The free breakfast was not anything special. Customer service was great &amp; friendly. More</t>
   </si>
   <si>
-    <t>Malissa S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r356526105-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -279,18 +351,12 @@
     <t>I thought I booked a hotel but definitely a motel.  The room smelled but I can tell you what the smell was.  We got up for breakfast that is from 6a-9a but there was literally one piece of bread left and that's it.  Very disappointing.The only solace was the bed was comfortable.MoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>I thought I booked a hotel but definitely a motel.  The room smelled but I can tell you what the smell was.  We got up for breakfast that is from 6a-9a but there was literally one piece of bread left and that's it.  Very disappointing.The only solace was the bed was comfortable.More</t>
   </si>
   <si>
-    <t>587rickyh</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r309361317-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -300,10 +366,7 @@
     <t>09/11/2015</t>
   </si>
   <si>
-    <t>Very good</t>
-  </si>
-  <si>
-    <t>Need plugs to work beside bed so cell phone and lap top computer can be plugged in. The first room we was assigned to was not cleaned yet. We returned to the front desk and was given a different room.  MoreShow less</t>
+    <t>MoreShow less</t>
   </si>
   <si>
     <t>July 2015</t>
@@ -315,10 +378,55 @@
     <t>Responded October 24, 2015</t>
   </si>
   <si>
-    <t>Need plugs to work beside bed so cell phone and lap top computer can be plugged in. The first room we was assigned to was not cleaned yet. We returned to the front desk and was given a different room.  More</t>
-  </si>
-  <si>
-    <t>William T</t>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r285300706-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>285300706</t>
+  </si>
+  <si>
+    <t>07/03/2015</t>
+  </si>
+  <si>
+    <t>Good Sleep</t>
+  </si>
+  <si>
+    <t>Good stay for an overnight sleep.Missed a connecting flight at the Dallas airport and was placed at this hotel for the night.Quiet and clean with good sleeping experience. Very friendly staff as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Harry P, Manager at Stay Express Inn Dallas - Fair Park / Downtown, responded to this reviewResponded August 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2015</t>
+  </si>
+  <si>
+    <t>Good stay for an overnight sleep.Missed a connecting flight at the Dallas airport and was placed at this hotel for the night.Quiet and clean with good sleeping experience. Very friendly staff as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r275789595-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>275789595</t>
+  </si>
+  <si>
+    <t>05/30/2015</t>
+  </si>
+  <si>
+    <t>We were tricked…</t>
+  </si>
+  <si>
+    <t>We thought it was going to be a "HOTEL" but when we got to the "HOTEL" we were shocked. We didn't understand why would the description said this is a MOTEL and when we got our room and opened it reaked the smell of smoke. No matter how much perfume we put the smell never got any better. Then after a hour in the room we found out there was NO WATER we called the front desk to ask why and they explained that a pipe broke and the water will be back in 20 minutes. We couldn't take it so we left the MOTEL to Holiday inn that was close byMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>We thought it was going to be a "HOTEL" but when we got to the "HOTEL" we were shocked. We didn't understand why would the description said this is a MOTEL and when we got our room and opened it reaked the smell of smoke. No matter how much perfume we put the smell never got any better. Then after a hour in the room we found out there was NO WATER we called the front desk to ask why and they explained that a pipe broke and the water will be back in 20 minutes. We couldn't take it so we left the MOTEL to Holiday inn that was close byMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r255676478-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
@@ -336,9 +444,6 @@
     <t>This was my first time staying at this hotel.  It was very nice and clean, the bed was comfortable.  For a older hotel it has been up dated very well.  The hotel staff was very nice, as was the breakfast.  I will stay here again.MoreShow less</t>
   </si>
   <si>
-    <t>February 2015</t>
-  </si>
-  <si>
     <t>Harry P, Manager at Stay Express Inn Dallas - Fair Park / Downtown, responded to this reviewResponded March 28, 2015</t>
   </si>
   <si>
@@ -348,9 +453,6 @@
     <t>This was my first time staying at this hotel.  It was very nice and clean, the bed was comfortable.  For a older hotel it has been up dated very well.  The hotel staff was very nice, as was the breakfast.  I will stay here again.More</t>
   </si>
   <si>
-    <t>courtbeajack</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r234017473-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -378,9 +480,6 @@
     <t>Checked in on October 10,2014. Room had 1/2 a roll of toilet tissue and no extra roll, requested a roll of ,toilet tissue and one extra set of towels. They were never delivered. Unable to call front desk due to no phone in the room. Went downstairs Saturday morning and made another request and finally both were delivered. Some of the towels already in the room were dirty and one of the comforters had a hole in it. Sheets had stains and comforter had noticeable stains. Room was not cleaned on Saturday even though we were gone from 11am - 5pm. Had to walk downstairs (no phone in room) and request towels and that trash be removed. The parking spot closest to the north stairs is also closet to back entrance of front desk. When not occupied by the same black Toyota Camry, an orange cone is placed to block anyone from utilizing the spot. I assume it is an employee and find this beyond rude, selfish and thoughtless. No discount for room not being cleaned. This location has ruined our view of Quality Inn. Will NOT patronize any Quality Inn again.More</t>
   </si>
   <si>
-    <t>Norbert L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r225786873-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -408,7 +507,58 @@
     <t>I literally just left this property today, had to leave. The mildew smell in Room #122 was overwhelming to say the least.  Too add to my nightmare experience, let me further expound on the poor services provided by his property.   I like my room cool while I sleep, and since this property had no bed comforters or blankets on the bed, I called the front desk to request one. The desk attendant told me that they didn't offer guest comforters or blankets, can you believe that, and he brought to my room a mattress cover and a hand full of sheets and said that was all he had to offer and that they didn't offer guest comforters or blankets, WOW.........Not to mention this room is across the hall from the maid service laundry room and the noise of the maid service staff and apparently their children woke me up early this morning with their loud laughter and playing right outside my door.  You need to avoid this property at all cost stay at one of the many properties in the area,More</t>
   </si>
   <si>
-    <t>mariah r</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r223724055-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>223724055</t>
+  </si>
+  <si>
+    <t>08/22/2014</t>
+  </si>
+  <si>
+    <t>"Convienient"</t>
+  </si>
+  <si>
+    <t>"We have stayed here several times. The hotel has a very luxurious feel. The rooms are nice and the bathroom has a great setup. Plenty of room to get ready. We requested a fridge and received one free of charge. My only suggestion is to provide 4 towels instead of 3 for two guests. "MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Harry P, Manager at Stay Express Inn Dallas - Fair Park / Downtown, responded to this reviewResponded August 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2014</t>
+  </si>
+  <si>
+    <t>"We have stayed here several times. The hotel has a very luxurious feel. The rooms are nice and the bathroom has a great setup. Plenty of room to get ready. We requested a fridge and received one free of charge. My only suggestion is to provide 4 towels instead of 3 for two guests. "More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r211841725-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>211841725</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>Worried at first but turned out OK</t>
+  </si>
+  <si>
+    <t>Me and my boyfriend had a staycation since we were going to the Blake Shelton concert. We wanted to take a cab from hotel to Gexa which was only about 5 miles. We checked in about 3 o'clock on Friday 6/20/2014 and it was about 96 degrees, at first I thought the room was hot because it was so hot outside but it just kept getting warmer and warmer and warmer throughout the day. After maintance came to look at it 2 or 3 times, under unit was soaking wet, they finally moved us to another room on second floor. It honestly felt like we had checked into another hotel, room was nicer, cleaner and sooo much cooler. I would recommend the place as long as you get an upstairs room. It's a shady area but we just stayed at the pool or in our room and it was all good. Concert was great and Staycation was great for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Harry P, Manager at Stay Express Inn Dallas - Fair Park / Downtown, responded to this reviewResponded July 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2014</t>
+  </si>
+  <si>
+    <t>Me and my boyfriend had a staycation since we were going to the Blake Shelton concert. We wanted to take a cab from hotel to Gexa which was only about 5 miles. We checked in about 3 o'clock on Friday 6/20/2014 and it was about 96 degrees, at first I thought the room was hot because it was so hot outside but it just kept getting warmer and warmer and warmer throughout the day. After maintance came to look at it 2 or 3 times, under unit was soaking wet, they finally moved us to another room on second floor. It honestly felt like we had checked into another hotel, room was nicer, cleaner and sooo much cooler. I would recommend the place as long as you get an upstairs room. It's a shady area but we just stayed at the pool or in our room and it was all good. Concert was great and Staycation was great for the price.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r211751685-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
@@ -426,9 +576,6 @@
     <t>this was the best trip ever!!!!!! the breakfast was VERY good... The ladies in the front desk were very nice and had a great personality. and the best of all FREE WIFI!!! ^0^ the room was very clean and smelled really great. the towels were very clean too. well I had a great time, and im exited for our next stay at this hotel.... ^-^ &lt;3MoreShow less</t>
   </si>
   <si>
-    <t>June 2014</t>
-  </si>
-  <si>
     <t>Harry P, Manager at Stay Express Inn Dallas - Fair Park / Downtown, responded to this reviewResponded June 30, 2014</t>
   </si>
   <si>
@@ -438,9 +585,6 @@
     <t>this was the best trip ever!!!!!! the breakfast was VERY good... The ladies in the front desk were very nice and had a great personality. and the best of all FREE WIFI!!! ^0^ the room was very clean and smelled really great. the towels were very clean too. well I had a great time, and im exited for our next stay at this hotel.... ^-^ &lt;3More</t>
   </si>
   <si>
-    <t>Frank F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r209453777-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -468,9 +612,6 @@
     <t>We stayed here the second time for one night in November 2013.The booking from Germany was without a problem.Our room was clean and spacious.We got a good breakfast in the morning.The neighborhood was calm and it seems safe.We would stay here again.More</t>
   </si>
   <si>
-    <t>CKCameron</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r200410482-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -498,7 +639,55 @@
     <t>Front desk people seemed very confused when we checked in.  I called for extra towels, but they were never delivered.  The room is in desperate need of some major upgrades.  Only bright spot-It was really cheap!!!!More</t>
   </si>
   <si>
-    <t>Nevvverrrogin</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r199203261-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>199203261</t>
+  </si>
+  <si>
+    <t>03/29/2014</t>
+  </si>
+  <si>
+    <t>Property Should be Condemed!!!</t>
+  </si>
+  <si>
+    <t>I had the misfortune of staying here for a very long seven days. I was wary because of previous reviews, but this was a business trip booked by third party. The check in was actually okay, young girl touting continental breakfast,etc. That is where good stopped. The building's exterior is a baby food yellow/brown with the parking lot and stairwells littered with a few spots of manure and hay (on stairs) for that Texas flair. The stairwell had a dirty q tip on it that I watched for 5 out of 7 days, a highlight of the stay. I opened a filthy door, covered in char spots where cigarettes had been nubbed out, to the dingiest room I have ever seen. A dark green carpet was covered in a variety of stains, a "found on side of road" recliner with threadbare spots, stuffing sprouting, and back broken greeted me. The chair had been wedged between AC unit and wall, sticking out enough to run into in the middle of the night. It could not be moved. The bed had what appeared to be clean covers, threadbare sheets with burn holes and stains refusing to budge. It was a king bed, but when I requested another comforter, a twin electric blanket and spread were offered(!?) The tub had a flimsy used to be white plastic mat covering up black dirt that had accumulated over years of neglect. There were several flash...I had the misfortune of staying here for a very long seven days. I was wary because of previous reviews, but this was a business trip booked by third party. The check in was actually okay, young girl touting continental breakfast,etc. That is where good stopped. The building's exterior is a baby food yellow/brown with the parking lot and stairwells littered with a few spots of manure and hay (on stairs) for that Texas flair. The stairwell had a dirty q tip on it that I watched for 5 out of 7 days, a highlight of the stay. I opened a filthy door, covered in char spots where cigarettes had been nubbed out, to the dingiest room I have ever seen. A dark green carpet was covered in a variety of stains, a "found on side of road" recliner with threadbare spots, stuffing sprouting, and back broken greeted me. The chair had been wedged between AC unit and wall, sticking out enough to run into in the middle of the night. It could not be moved. The bed had what appeared to be clean covers, threadbare sheets with burn holes and stains refusing to budge. It was a king bed, but when I requested another comforter, a twin electric blanket and spread were offered(!?) The tub had a flimsy used to be white plastic mat covering up black dirt that had accumulated over years of neglect. There were several flash burn marks next to the non working light fixture next to bed. There were several areas where mysery spots and splashes had been left to dry. I had to wipe the TV off with a damp rag just to see past the grime. The rooms dead bolt did not work. The light fixture over microwave fell of ceiling leaving exposed wires, but really didnt matter because this fixture didnt work either. But now for the outrageous. Every night I emptied my pockets on the dresser. I had amassed a pile of stuff. One night I returned to find all my money gone with a note from the housekeeper thanking me for the tip!!!what???? This was mid stay, the bed was only made twice, fresh towels given twice, room never vacuumed.....and then assume I want to tip? This is outright theft. When the manager questioned her, she siad she didnt take the big bills. OMG!!!! I have been on the road for 15 years and this is the worst property I have ever seen.  I have left several massages for Mr.Patel to return my calls, but to no avail. I guess he condones this. Do ot waste yor time or money. A nice Holiday Inn is next door. The is the first time I have felt very uncomfortable in a hotel. It has unsavory characters galore, loud music at all hours, and police being summoned at least once a night. Do not let your wife, daughters,animals,well,anyone stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Harry P, Public Relations Manager at Stay Express Inn Dallas - Fair Park / Downtown, responded to this reviewResponded April 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2014</t>
+  </si>
+  <si>
+    <t>I had the misfortune of staying here for a very long seven days. I was wary because of previous reviews, but this was a business trip booked by third party. The check in was actually okay, young girl touting continental breakfast,etc. That is where good stopped. The building's exterior is a baby food yellow/brown with the parking lot and stairwells littered with a few spots of manure and hay (on stairs) for that Texas flair. The stairwell had a dirty q tip on it that I watched for 5 out of 7 days, a highlight of the stay. I opened a filthy door, covered in char spots where cigarettes had been nubbed out, to the dingiest room I have ever seen. A dark green carpet was covered in a variety of stains, a "found on side of road" recliner with threadbare spots, stuffing sprouting, and back broken greeted me. The chair had been wedged between AC unit and wall, sticking out enough to run into in the middle of the night. It could not be moved. The bed had what appeared to be clean covers, threadbare sheets with burn holes and stains refusing to budge. It was a king bed, but when I requested another comforter, a twin electric blanket and spread were offered(!?) The tub had a flimsy used to be white plastic mat covering up black dirt that had accumulated over years of neglect. There were several flash...I had the misfortune of staying here for a very long seven days. I was wary because of previous reviews, but this was a business trip booked by third party. The check in was actually okay, young girl touting continental breakfast,etc. That is where good stopped. The building's exterior is a baby food yellow/brown with the parking lot and stairwells littered with a few spots of manure and hay (on stairs) for that Texas flair. The stairwell had a dirty q tip on it that I watched for 5 out of 7 days, a highlight of the stay. I opened a filthy door, covered in char spots where cigarettes had been nubbed out, to the dingiest room I have ever seen. A dark green carpet was covered in a variety of stains, a "found on side of road" recliner with threadbare spots, stuffing sprouting, and back broken greeted me. The chair had been wedged between AC unit and wall, sticking out enough to run into in the middle of the night. It could not be moved. The bed had what appeared to be clean covers, threadbare sheets with burn holes and stains refusing to budge. It was a king bed, but when I requested another comforter, a twin electric blanket and spread were offered(!?) The tub had a flimsy used to be white plastic mat covering up black dirt that had accumulated over years of neglect. There were several flash burn marks next to the non working light fixture next to bed. There were several areas where mysery spots and splashes had been left to dry. I had to wipe the TV off with a damp rag just to see past the grime. The rooms dead bolt did not work. The light fixture over microwave fell of ceiling leaving exposed wires, but really didnt matter because this fixture didnt work either. But now for the outrageous. Every night I emptied my pockets on the dresser. I had amassed a pile of stuff. One night I returned to find all my money gone with a note from the housekeeper thanking me for the tip!!!what???? This was mid stay, the bed was only made twice, fresh towels given twice, room never vacuumed.....and then assume I want to tip? This is outright theft. When the manager questioned her, she siad she didnt take the big bills. OMG!!!! I have been on the road for 15 years and this is the worst property I have ever seen.  I have left several massages for Mr.Patel to return my calls, but to no avail. I guess he condones this. Do ot waste yor time or money. A nice Holiday Inn is next door. The is the first time I have felt very uncomfortable in a hotel. It has unsavory characters galore, loud music at all hours, and police being summoned at least once a night. Do not let your wife, daughters,animals,well,anyone stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r196852574-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>196852574</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasantly surprised! </t>
+  </si>
+  <si>
+    <t>Read reviews and guess I read the best of them first and so I stayed here. Staff was pleasant, price was right. Room was very clean and comfortable. I would stay again. There was however a policemen outside talking to someone. I didn't feel uncomfortable but thought worth mentioning. Being so close to highway I thought it would be noisy but that was not that for me. Could have been I was so tired from driving all day.MoreShow less</t>
+  </si>
+  <si>
+    <t>Harry P, General Manager at Stay Express Inn Dallas - Fair Park / Downtown, responded to this reviewResponded March 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2014</t>
+  </si>
+  <si>
+    <t>Read reviews and guess I read the best of them first and so I stayed here. Staff was pleasant, price was right. Room was very clean and comfortable. I would stay again. There was however a policemen outside talking to someone. I didn't feel uncomfortable but thought worth mentioning. Being so close to highway I thought it would be noisy but that was not that for me. Could have been I was so tired from driving all day.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r196048840-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
@@ -516,18 +705,9 @@
     <t>I stayed here with two other rooms two years ago when it was LaQuinta for two weeks while I worked on the children's arboretum. I did not even git undresses this time the floors were so stained and dirty I slept with my boots on hanging off the bed. I looked this place up on your site after i was committed. I see you took the other review off the guy must of had the same room 250. I was to tired to leave and had to catch some sleep. Noisy all night long and those weren't fire crackers @ 2am. Took my boots off only in front of the shower. There was blood on my washcloth and on the back of the door. Look like crap on the walls.  I have stayed in some pretty unique places but this takes the cake.MoreShow less</t>
   </si>
   <si>
-    <t>Harry P, General Manager at Stay Express Inn Dallas - Fair Park / Downtown, responded to this reviewResponded March 11, 2014</t>
-  </si>
-  <si>
-    <t>Responded March 11, 2014</t>
-  </si>
-  <si>
     <t>I stayed here with two other rooms two years ago when it was LaQuinta for two weeks while I worked on the children's arboretum. I did not even git undresses this time the floors were so stained and dirty I slept with my boots on hanging off the bed. I looked this place up on your site after i was committed. I see you took the other review off the guy must of had the same room 250. I was to tired to leave and had to catch some sleep. Noisy all night long and those weren't fire crackers @ 2am. Took my boots off only in front of the shower. There was blood on my washcloth and on the back of the door. Look like crap on the walls.  I have stayed in some pretty unique places but this takes the cake.More</t>
   </si>
   <si>
-    <t>Leticia M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r179267877-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -549,9 +729,6 @@
     <t>I have stayed in a lot of different hotels and I must say I have never experienced such awful customer service. Walking in and seeing 2 front desk ladies at the counter and not 1 welcomed me.  Had 1 young lady on her cell phone talking loud and saying provocative words, while the other young lady needing help checking in a guest.  And not to mention how they were dressed.  Both dressed in blue jeans, tank tops, and sandals, and 1 lady with a messy bun.  No communication what so ever with the guests.  I had to ask when was check out and where my room was located.  Someone should train their front desk staff a little better.More</t>
   </si>
   <si>
-    <t>Ihavethepower</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r171393339-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -570,7 +747,33 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>ExistenceNow</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r163999164-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>163999164</t>
+  </si>
+  <si>
+    <t>06/14/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r163456150-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>163456150</t>
+  </si>
+  <si>
+    <t>06/09/2013</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>I don't have anything necessarily bad to say about this hotel. Nor do I really have anything good to say about it either. For the price I paid, I got what I expected. I had minimal contact with the staff but never had a problem with them. My room was acceptable even with a few stains in the carpet and a couple of holes in the sheets. The AC was freezing cold, which is a good thing during a Texas summer. The cleaning staff did a good job. My room had a refrigerator and microwave. They were both sufficient but seemed to have been added to the room as an afterthought. The microwave was smaller than I'm used to getting in a hotel room.  I did notice security walking around and they seemed friendly. The hotel is about six miles from downtown Dallas and I believe the closest light rail station is about three to four miles away. I stayed for the low priced proximity to downtown. 
+The photos of their rooms that I see on TripAdvisor are obviously staged but still a good representation of what they look like. However, the pool, breakfast area, and reception areas are made to look bigger (and nicer) than they really are in my own opinion. You may also notice missing photos of the outside of building besides the main office. This could be because, unlike other LaQuintas at which I've stayed, this...I don't have anything necessarily bad to say about this hotel. Nor do I really have anything good to say about it either. For the price I paid, I got what I expected. I had minimal contact with the staff but never had a problem with them. My room was acceptable even with a few stains in the carpet and a couple of holes in the sheets. The AC was freezing cold, which is a good thing during a Texas summer. The cleaning staff did a good job. My room had a refrigerator and microwave. They were both sufficient but seemed to have been added to the room as an afterthought. The microwave was smaller than I'm used to getting in a hotel room.  I did notice security walking around and they seemed friendly. The hotel is about six miles from downtown Dallas and I believe the closest light rail station is about three to four miles away. I stayed for the low priced proximity to downtown. The photos of their rooms that I see on TripAdvisor are obviously staged but still a good representation of what they look like. However, the pool, breakfast area, and reception areas are made to look bigger (and nicer) than they really are in my own opinion. You may also notice missing photos of the outside of building besides the main office. This could be because, unlike other LaQuintas at which I've stayed, this one is set up and looks like a motel. Also be aware of this hotel being right off of the highway. I could hear highway noises throughout the night in room 203.MoreShow less</t>
+  </si>
+  <si>
+    <t>I don't have anything necessarily bad to say about this hotel. Nor do I really have anything good to say about it either. For the price I paid, I got what I expected. I had minimal contact with the staff but never had a problem with them. My room was acceptable even with a few stains in the carpet and a couple of holes in the sheets. The AC was freezing cold, which is a good thing during a Texas summer. The cleaning staff did a good job. My room had a refrigerator and microwave. They were both sufficient but seemed to have been added to the room as an afterthought. The microwave was smaller than I'm used to getting in a hotel room.  I did notice security walking around and they seemed friendly. The hotel is about six miles from downtown Dallas and I believe the closest light rail station is about three to four miles away. I stayed for the low priced proximity to downtown. 
+The photos of their rooms that I see on TripAdvisor are obviously staged but still a good representation of what they look like. However, the pool, breakfast area, and reception areas are made to look bigger (and nicer) than they really are in my own opinion. You may also notice missing photos of the outside of building besides the main office. This could be because, unlike other LaQuintas at which I've stayed, this...I don't have anything necessarily bad to say about this hotel. Nor do I really have anything good to say about it either. For the price I paid, I got what I expected. I had minimal contact with the staff but never had a problem with them. My room was acceptable even with a few stains in the carpet and a couple of holes in the sheets. The AC was freezing cold, which is a good thing during a Texas summer. The cleaning staff did a good job. My room had a refrigerator and microwave. They were both sufficient but seemed to have been added to the room as an afterthought. The microwave was smaller than I'm used to getting in a hotel room.  I did notice security walking around and they seemed friendly. The hotel is about six miles from downtown Dallas and I believe the closest light rail station is about three to four miles away. I stayed for the low priced proximity to downtown. The photos of their rooms that I see on TripAdvisor are obviously staged but still a good representation of what they look like. However, the pool, breakfast area, and reception areas are made to look bigger (and nicer) than they really are in my own opinion. You may also notice missing photos of the outside of building besides the main office. This could be because, unlike other LaQuintas at which I've stayed, this one is set up and looks like a motel. Also be aware of this hotel being right off of the highway. I could hear highway noises throughout the night in room 203.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r162518981-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
@@ -595,9 +798,6 @@
     <t>May 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>As the title indicates, this is the worst La Quinta I have ever stayed in.  
 First impressions are huge, and this place failed immediately.  I walked into the lobby, and there were two people at the check-in desk.  One person was helping another couple, the other was counting down her drawer.  There were a couple people ahead of me in line.  Upon seeing a lobby full of guests waiting to check in, does she pause her daily duty to help work through the line?  No.  She just keeps on counting her drawer.
 At one point, the woman actually helping guests leaves to go check on a room.  Other woman just keeps on counting her drawer, meaning that the lobby full of guests just stood there, with no one being helped.  Finally, she finishes counting her drawer and I think "Okay, she's ready to start helping now."  Wrong.  She clocks out and goes home.  This is a service industry job.  It doesn't matter what time your shift ends.  If it's busy, you stay.  
@@ -605,9 +805,6 @@
 Our non-smoking room reeked of cigarette smoke.  The paint was cracked and the moldings...As the title indicates, this is the worst La Quinta I have ever stayed in.  First impressions are huge, and this place failed immediately.  I walked into the lobby, and there were two people at the check-in desk.  One person was helping another couple, the other was counting down her drawer.  There were a couple people ahead of me in line.  Upon seeing a lobby full of guests waiting to check in, does she pause her daily duty to help work through the line?  No.  She just keeps on counting her drawer.At one point, the woman actually helping guests leaves to go check on a room.  Other woman just keeps on counting her drawer, meaning that the lobby full of guests just stood there, with no one being helped.  Finally, she finishes counting her drawer and I think "Okay, she's ready to start helping now."  Wrong.  She clocks out and goes home.  This is a service industry job.  It doesn't matter what time your shift ends.  If it's busy, you stay.  On to the room.  Awful.  We walk in, and only one of the beds has pillows.  We tell housekeeping, who informs us she will have us pillows in ten minutes.  We hang around for a half hour, and nothing.  We go out, come home 8 hours later ready to sleep, and still no pillows.  Our non-smoking room reeked of cigarette smoke.  The paint was cracked and the moldings were starting to come away from the walls.  The shower looked like something out of a horror movie.  The bathroom door, upon closing all the way, required a Juggernaut worthy effort to open.  My petite wife got stuck in there and I had to wrench the door open for her.  We went to get ice from the ice machine to fill a small personal cooler, and found that it was a mosquito breeding pool.  Deciding I didn't need malaria with my beverages, we opted to just buy ice from the corner store adjacent to the property.  A few positive things to mention:The woman who actually felt like doing her job that day was polite.  There's a Denny's on the property (though I give it no points for that since that's extremely common for a La Quinta) as well as a gas station with good selection of snacks and drinks.  It's conveniently located to the Starplex.  If you're not attending an event there though, the location isn't desirable. It's cheap.  None of that outweighs the bad, and I will not be staying here again.  Next time, I will just sack up and pay for a hotel downtown.More</t>
   </si>
   <si>
-    <t>A La Quinta traveler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r162095008-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -617,18 +814,9 @@
     <t>05/28/2013</t>
   </si>
   <si>
-    <t>over all view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other than what i said in review i am satisfied but do feel that a micro-wave is needed in rooms. I already wrote about the bad experience that i had with my girl on the stay before last that i stayed at this location. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Lisa S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r161643408-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -644,6 +832,33 @@
     <t>Easy to find right off of exit.  The lady who checked us in was very nice and pleasant, said if we need anything call the front desk.  Even though the room was a little date it was very nice and clean.   The air conditioning worked great.  Was worried that the noise from the freeway would be loud but with the air conditioning on didn't notice it at all.  Breakfast was good plenty of food out not picked over.  Would stay there again!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r161144679-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>161144679</t>
+  </si>
+  <si>
+    <t>05/19/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r158976882-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>158976882</t>
+  </si>
+  <si>
+    <t>04/27/2013</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Reasonable priced motel, in the location that i wanted, clean etc. Breakfast was fine. Next door to dennys and a petrol sttion.  Couldnt really of asked for anything else.             Lots of parking and quiet dispite the road.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r158581884-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -653,18 +868,6 @@
     <t>04/23/2013</t>
   </si>
   <si>
-    <t>Great service and comfortable rooms!</t>
-  </si>
-  <si>
-    <t>This hotel was not in a great area but the stay was enjoyable. It was very comfortable and the rooms were of high quality. The service is unbeatable and I will be back regardless of the neighborhood. We had no issues while staying two nights.</t>
-  </si>
-  <si>
-    <t>April 2013</t>
-  </si>
-  <si>
-    <t>Orion G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r157147776-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -686,9 +889,6 @@
     <t>La Quinta is our go-to hotel when we are working festivals, and this is the one we stay in when working the North Texas Irish Festival. It's close to the fair grounds and its next door to a Denny's. This hotel is a two story motel style building that's a bit run down. The rooms are nice, but a little dingy. The hotel still offers its usual amenities, the complimentary breakfast buffet and the like, but we generally do take advantage of it here, as we prefer to have breakfast next door. Surprisingly, I find the beds here a little more comfortable than in some of the newer La Quinta's. The service here is also up to La Quinta's generally pretty good standards.More</t>
   </si>
   <si>
-    <t>Kara L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r154550529-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -707,7 +907,40 @@
     <t>March 2013</t>
   </si>
   <si>
-    <t>Zoey945</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r151702347-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>151702347</t>
+  </si>
+  <si>
+    <t>02/08/2013</t>
+  </si>
+  <si>
+    <t>Will Do</t>
+  </si>
+  <si>
+    <t>I always try to book with La Quinta an assumed they were all pretty similar. Not really. I booked my room ahead of time. I arrived at the location and noticed it was a motel. Ok...no big deal. A little different from what I am used to but I am sure it was fine. Staff was nice and there was security walking around to keep things safe. When I got into my room....I was not that impressed. Floors had old stains and doors were dirty along with around light switches. There were still several short hairs left over in bathroom floor and in tub. It just looks kind of worn out. There was good internet connection and nice business desk for me to use.Overall....it will just do. Would I come back? No. I would stay at the Holiday Inn Express next door. With all that said....I try to always stay at La Quinta where ever I go because they are very nice. Next time I will just check it out a little closer before I book a room.MoreShow less</t>
+  </si>
+  <si>
+    <t>I always try to book with La Quinta an assumed they were all pretty similar. Not really. I booked my room ahead of time. I arrived at the location and noticed it was a motel. Ok...no big deal. A little different from what I am used to but I am sure it was fine. Staff was nice and there was security walking around to keep things safe. When I got into my room....I was not that impressed. Floors had old stains and doors were dirty along with around light switches. There were still several short hairs left over in bathroom floor and in tub. It just looks kind of worn out. There was good internet connection and nice business desk for me to use.Overall....it will just do. Would I come back? No. I would stay at the Holiday Inn Express next door. With all that said....I try to always stay at La Quinta where ever I go because they are very nice. Next time I will just check it out a little closer before I book a room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r150025564-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>150025564</t>
+  </si>
+  <si>
+    <t>01/19/2013</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, and good location</t>
+  </si>
+  <si>
+    <t>This property is located close to downtown Dallas and there is a Denny's Restaurant next door. The continental breakfast is about average for La Quinta motels. This one has Otis Spunkmeyer products and the muffins and bagels are individually wrapped. There was a variety of muffins but only one type of bagel. The rooms were clean and comfortable and the WIFI was easy to access. We stay at La Quinta whenever we travel and found this to be one of the older types. However, it was in good condition.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r149386753-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
@@ -725,12 +958,6 @@
     <t>This La Quinta was convenient, clean and comfortable. We were traveling with a large dog and a cat and were surprised  by how easy it was to stay here. No extra charges, just a nice comfortable room. I would stay here again!</t>
   </si>
   <si>
-    <t>January 2013</t>
-  </si>
-  <si>
-    <t>RobertTravel</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r146242458-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -749,9 +976,6 @@
     <t>September 2012</t>
   </si>
   <si>
-    <t>TexasTerry45</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r145054388-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -770,7 +994,25 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t>vicki g</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r142167984-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>142167984</t>
+  </si>
+  <si>
+    <t>10/06/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r142167895-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>142167895</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>We were in Dallas for the State Fair. The location was not too far from the fair but far enough not to be over priced. The room was clean, comfy and the bonus was there is security in the parking lot. Overall the stay was pleasant.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r140620460-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
@@ -788,9 +1030,6 @@
     <t>The hotel is probably an older motel style, however the rooms were clean and comfortable. The staff friendly and helpful. The hotel is positioned close to attractions it is also in a quiet area. Breakfast was ok. The price was excellent on the whole this was a great place to stay.</t>
   </si>
   <si>
-    <t>hogman32</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r136508376-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -818,16 +1057,43 @@
     <t>07/29/2012</t>
   </si>
   <si>
-    <t>The time of my life.</t>
-  </si>
-  <si>
-    <t>I had a very wonderful stay at this hotel. The daytime manager was the sweetest, most knowlegable people I have met at a hotel. I'm from Alabama and am very much accustomed to southern hospitality. Her personality made my home away from home a very pleasant one.</t>
-  </si>
-  <si>
     <t>July 2012</t>
   </si>
   <si>
-    <t>EBovary</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r134144857-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>134144857</t>
+  </si>
+  <si>
+    <t>07/11/2012</t>
+  </si>
+  <si>
+    <t>Dog Show Exhibitor</t>
+  </si>
+  <si>
+    <t>The room was very clean and room service excellent.  Plan on staying next year.  Front DesK was very helpful and friendly.  Security provided and we slept peacefully.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r131838553-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>131838553</t>
+  </si>
+  <si>
+    <t>06/12/2012</t>
+  </si>
+  <si>
+    <t>Super service and room</t>
+  </si>
+  <si>
+    <t>The service and room at this LaQunita were second to none.  I could have stayed somewhere much more expensive, but chose this one because I was traveling to an area of Dallas that I had never been to.  The staff were unfailingly kind in not only my room placement, but also gave me complete and accurate driving directions to my final destination, enabling me to get where I was going without having to fight Dallas moring traffic.  It was an altogether super satisfying stay and I would reccommend this LaQuinta to anyone.  Their kindness to an over 60 year old woman traveling alone made me feel like they really cared about not only my safety but my feeling of being safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>The service and room at this LaQunita were second to none.  I could have stayed somewhere much more expensive, but chose this one because I was traveling to an area of Dallas that I had never been to.  The staff were unfailingly kind in not only my room placement, but also gave me complete and accurate driving directions to my final destination, enabling me to get where I was going without having to fight Dallas moring traffic.  It was an altogether super satisfying stay and I would reccommend this LaQuinta to anyone.  Their kindness to an over 60 year old woman traveling alone made me feel like they really cared about not only my safety but my feeling of being safe.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r131782300-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
@@ -845,15 +1111,9 @@
     <t>We were attending a wedding at the Dallas Arboretum, so this motel was close by and easy to access from the Interstate. We were disappointed that the pool was closed for repairs, a particular bummer because several of us attending the wedding were staying at this motel and were planning to hang out by the pool together. Our room, however, was clean and well-maintained, and there was not a lot of traffic noise from the Interstate, which was right outside our door. Breakfast was not much to write home about, and there was no cream for the coffee, so we ended up going out for breakfast. A perfectly acceptable roadside motel.MoreShow less</t>
   </si>
   <si>
-    <t>June 2012</t>
-  </si>
-  <si>
     <t>We were attending a wedding at the Dallas Arboretum, so this motel was close by and easy to access from the Interstate. We were disappointed that the pool was closed for repairs, a particular bummer because several of us attending the wedding were staying at this motel and were planning to hang out by the pool together. Our room, however, was clean and well-maintained, and there was not a lot of traffic noise from the Interstate, which was right outside our door. Breakfast was not much to write home about, and there was no cream for the coffee, so we ended up going out for breakfast. A perfectly acceptable roadside motel.More</t>
   </si>
   <si>
-    <t>Rodney P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r130924524-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -872,9 +1132,6 @@
     <t>May 2012</t>
   </si>
   <si>
-    <t>Janie G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r130474055-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -884,10 +1141,31 @@
     <t>05/23/2012</t>
   </si>
   <si>
-    <t>May overnight stay in Dallas</t>
-  </si>
-  <si>
-    <t>Stayed there as we were attending a wedding in the area. Excellent accomodations, friendly courteous service &amp; handy location. Great experience overall!</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r130245367-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>130245367</t>
+  </si>
+  <si>
+    <t>05/19/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r130071637-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>130071637</t>
+  </si>
+  <si>
+    <t>05/16/2012</t>
+  </si>
+  <si>
+    <t>Conveinent Weekend Getaway</t>
+  </si>
+  <si>
+    <t>The best thing I like about LQ east was the location.  It is less than ten minutes away from downtown.  Downtown is where I spent the majority of my weekend.  Also, adjacent to the hotel is a Denny's, Furr's, Exxon/Seven 11, CVS Pharmacy, and a Wal-Mart that is less than a mile from the hotel.  I look for these kinds of "outside" amenities when I choose a hotel.  The staff was courteous.  Check in and check out took less than two minutes.  Works for me!  Upon checking out, I notified a member of management that my cooling/heating unit wasn't blowing as cool as I one would expect.  She immediately called a member of the maintanence team and alerted the team member to the issue.  That's great customer service.  For me, that wasn't even an issue.  I wasn't in the room long enough to really be concerned with it.  If you're looking for a reasonably price hotel for your stay, then this is it.  I would definitely consider staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The best thing I like about LQ east was the location.  It is less than ten minutes away from downtown.  Downtown is where I spent the majority of my weekend.  Also, adjacent to the hotel is a Denny's, Furr's, Exxon/Seven 11, CVS Pharmacy, and a Wal-Mart that is less than a mile from the hotel.  I look for these kinds of "outside" amenities when I choose a hotel.  The staff was courteous.  Check in and check out took less than two minutes.  Works for me!  Upon checking out, I notified a member of management that my cooling/heating unit wasn't blowing as cool as I one would expect.  She immediately called a member of the maintanence team and alerted the team member to the issue.  That's great customer service.  For me, that wasn't even an issue.  I wasn't in the room long enough to really be concerned with it.  If you're looking for a reasonably price hotel for your stay, then this is it.  I would definitely consider staying here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r125322118-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
@@ -899,18 +1177,9 @@
     <t>02/27/2012</t>
   </si>
   <si>
-    <t>Just a place to sleep</t>
-  </si>
-  <si>
-    <t>This was a last minute trip and I just needed a place to sleep. Otherwise I would not have stayed. The noise from the highway was very loud and the towels were thin. The "free" breakfast was a joke. The car parked next to mine was broken into during the night.</t>
-  </si>
-  <si>
     <t>February 2012</t>
   </si>
   <si>
-    <t>VijGuy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r123329869-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -929,9 +1198,6 @@
     <t>December 2011</t>
   </si>
   <si>
-    <t>Stephanie C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r97045960-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -950,7 +1216,43 @@
     <t>February 2011</t>
   </si>
   <si>
-    <t>luce_sociator</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r46083635-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>46083635</t>
+  </si>
+  <si>
+    <t>10/07/2009</t>
+  </si>
+  <si>
+    <t>gross and disgusting WILL NOT STAY AGAIN!!!!</t>
+  </si>
+  <si>
+    <t>gross and disgustingOur room was really dirty; sheets were stained and had blood on them. There was dirty silverware under the table. Filthy coffee pot. and I can't forget to mention the gang and drug activity going on outside the hotel. We did not feel safe at all we were glad that we only stayed one night.We will NOT stay again!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r42048110-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>42048110</t>
+  </si>
+  <si>
+    <t>09/15/2009</t>
+  </si>
+  <si>
+    <t>Nice Suprise</t>
+  </si>
+  <si>
+    <t>I have read other reviews about this hotel on various sites and was leary. However since my friend booked the rooms using, I was not one to complain.  It was great to check right in and go in to an airconditioned room. Most places do not have the air turned on at all. Even though we had a room RIGHT NEXT to the ice machine and pool, it was very quiet, and I slept soundly.  We were in town for a concert, and this hotel is very close to the venue with easy access to the highway. We got back to the hotel very late that night, and was glad to see that all was quiet. The continental breakfast was average, but there is a Dennys out front for those who want a hot breakfast.  The pool was clean and nice, and something that we really enjoyed. Did not interact with the staff myself during our stay, but was overall pleased with everything. Will be back if I get back to this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>I have read other reviews about this hotel on various sites and was leary. However since my friend booked the rooms using, I was not one to complain.  It was great to check right in and go in to an airconditioned room. Most places do not have the air turned on at all. Even though we had a room RIGHT NEXT to the ice machine and pool, it was very quiet, and I slept soundly.  We were in town for a concert, and this hotel is very close to the venue with easy access to the highway. We got back to the hotel very late that night, and was glad to see that all was quiet. The continental breakfast was average, but there is a Dennys out front for those who want a hot breakfast.  The pool was clean and nice, and something that we really enjoyed. Did not interact with the staff myself during our stay, but was overall pleased with everything. Will be back if I get back to this area.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r36094721-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
@@ -978,9 +1280,6 @@
 Neutral: This is right off Interstate 30 and that is a busy and loud highway. I could barely hear the traffic inside the room, and with the room air turned on, it didn't really bother me. Others have noted that if someone is upstairs, you can hear them clomping through their rooms. The first night we had this with some children overhead, but soon they quieted down. They have an older style...The Good: This is an inexpensive older hotel in and older, somewhat deteriorated area. The hotel is well maintained and the rooms are well kept inside. Very clean. The bed was firm, perhaps overly so. There was a microfridge and a large TV. Close to the Cottonbowl stadium and downtown Dallas. Close to Baylor Hospital which was why we chose it. Several discount rates for seniors, AARP, and hospital rate, Walmart etc I was told by one of the clerks and saw on the website. The Bad: The wireless internet was not strong enough to be reliable and there was no hardwired port in the room. My computer was useless in the room. Fortunately I had 3g wireless available. The breakfast which is hyped on the LaQuinta website was really kind of pathetic. Minimal or no protein. There is a Dennys adjacent to the property, but nothing to brag about there either. Be prepared to enjoy your bowl of cereal, lowfat muffin and toast. The coffee is good. Neutral: This is right off Interstate 30 and that is a busy and loud highway. I could barely hear the traffic inside the room, and with the room air turned on, it didn't really bother me. Others have noted that if someone is upstairs, you can hear them clomping through their rooms. The first night we had this with some children overhead, but soon they quieted down. They have an older style room lock, plastic key with holes. I have heard that the locks are not changed from visitor to visitor, so someone could keep the plastic key and enter a room. They should really upgrade this hotel to the newer electronic locks.I had some problems at check-in, the night clerk wouldn't give me the senior rate without an AARP card. I told him I signed up through the website at the Senior rate. I finally showed him the website on my iPhone (I love my iPhone), and he relented and gave me the rate. The day clerks and another night clerk had no problem and knew about all their discounts.More</t>
   </si>
   <si>
-    <t>ArkansasMomOf3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r29763557-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1002,9 +1301,6 @@
     <t>The location was convenient for our trip from Arkansas to the Dallas Museum of Art.  The room was clean and the beds were adequate.  I was not, however, expecting a hotel with exterior rooms, which is what we got.  The walls are pretty thin and the building seems to shake when people were walking around.  We were on the 2nd floor (top floor) and I definitely felt the room moving as I was going to sleep thanks to some 20-something men in the room next to us.  The water pressure in the shower was quite weak and the manager seemed surprised when we commented on it.  The "high speed internet" was advertised, but according to a card in the room, there was only supposed to be wired access in the rooms - however I was unable to locate anywhere to plug into.  We finally got a very weak wireless signal, but it was not at all reliable or fast.  I might stay here again without the kids, because of the value, but definitely not again with the kids.More</t>
   </si>
   <si>
-    <t>ccslilqt6969</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r28891486-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1023,7 +1319,37 @@
     <t>April 2009</t>
   </si>
   <si>
-    <t>MissDusty</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r20915978-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>20915978</t>
+  </si>
+  <si>
+    <t>10/15/2008</t>
+  </si>
+  <si>
+    <t>Great location, comfortable, safe area.</t>
+  </si>
+  <si>
+    <t>Very clean, comfortable room.   24-hour Denny's next door and lots of convenience shopping nearby (Wal-Mart, etc.).  The best location for visitors to Fair Park and the rates can't be beat.  Very friendly staff and good continental breakfast.  We'll definitely stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r19670344-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>19670344</t>
+  </si>
+  <si>
+    <t>09/02/2008</t>
+  </si>
+  <si>
+    <t>Do not stay here!</t>
+  </si>
+  <si>
+    <t>I would not stay here because of the following reasons:unclean roomstained sheets slow draining sinktoilet would not flushroachescoffee grinds still in coffee maker from previous visitorremote did not work goodno game consoles like xbox or playstation will work a/c very loudcondom left in night stand( thank god it was not used)homeless people asking for food</t>
+  </si>
+  <si>
+    <t>August 2008</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r18675893-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
@@ -1055,9 +1381,6 @@
 We wanted to go the Dallas Farmer’s Market, which we had directions to, but we needed directions to a bank first, so I went inside to ask for directions. The front desk clerk was immediately friendly and extremely helpful. She looked up directions for me on Google Maps and even printed them out...This property definitely needs an updated review, and I have it!  My husband and I were nicely impressed by this motel. We arrived in Dallas early in the morning, and check-in was not until 2 PM, but, wanting to make sure we knew how to get to the motel, we went ahead and drove over there.  The first thing we checked out was the neighborhood, since we saw a warning about it in a review from back in 2005. Neighborhoods apparently change greatly over 3 years – it seemed like a nice place, with no “weird” people or happenings going on in the area. You might expect a lot of “seedier” people to be hanging around here, just because it is a much more inexpensive motel, but I did not see anyone or anything that would fit that description.From the outside, the motel looked very nice and well-kept. This is definitely an older property, but it is obvious that La Quinta has gone a long way to keep it up.  The pool was very small, but it looked clean (we never used it - too busy).We wanted to go the Dallas Farmer’s Market, which we had directions to, but we needed directions to a bank first, so I went inside to ask for directions. The front desk clerk was immediately friendly and extremely helpful. She looked up directions for me on Google Maps and even printed them out for me. When I asked about check-in time, she informed me that she had rooms available right then, if I wanted to go ahead and check in!  Of course, I did! The clerk gave me a nice, friendly welcome to this motel.We nearly froze when we walked into our room – a nice surprise, since that meant the air conditioning definitely worked, although we made sure to warm it up quite a bit. The beds are smaller queen beds – but plenty roomy enough for everyone to fit. The 2nd bed is right next to the a/c unit, but that is to be expected in a motel room. In other words, this is not the Hilton – don’t expect to have all the room of a house! That said, we found we had plenty of room, and we definitely had to take up room, what with our toddler’s play pen (plenty of room to open it up and not trip over it), the surprise refrigerator, and all of our clothing/suitcases.  The vanity area is quite large by motel standards – there was more than enough room for me to set up the motel-provided ironing board with a walkway to the bathroom.  There is even a closet with folding doors for your hanging clothes.  That is where you will find the iron and ironing board.The best thing about our room: Everything was Clean!!!  I have stayed in many motels, and I often find dead bugs around the corners of the room (a hazard of having the door lead directly outside, I suppose, and a cleaning staff that doesn’t work so well).  At the La Quinta Inn Dallas-East, however, I did not run into that problem!  There were no bugs there for me to worry about my toddler picking up before I find them!Yes, this motel is right off the highway (I-30), so you will hear some highway noise, but it was very muted and did not bother us at all.  Someone previously mentioned a train being nearby, but we never heard nor saw any evidence of that.  Our room was very quiet.Although on the map this motel seemed a bit “off-the-beaten path,” it is amazingly close (considering the size of Dallas) to most of the things we wanted to visit, like the Farmer’s Market and Fair Park.  There are plenty of places to eat or get to supplies in the immediate vicinity, including a Denny’s and Exxon basically in the same parking lot, a McDonald’s, Walmart and Staples across the highway (easy to get to because of the set-up of the streets), etc.If you want a nice, inexpensive place to stay, that’s fairly close to most tourist attractions, I would most definitely recommend this La Quinta Inn!More</t>
   </si>
   <si>
-    <t>sammymd</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r5938572-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1079,9 +1402,6 @@
     <t>My husband and I stayed one night at the La Quinta 10/08/06. We wanted something fairly close to Fair Park that was clean. This hotel met those requirements. On the downside this is a older property, which meant old beds, and breakfast not as good, or plentiful as most  La Quintas.  We checked in early with a friendly receptionist, since a king room was not available took 2 doubles. For you with children, this was older smaller beds. One of the beds was right up against the a/c unit. This bedroom was one of the smaller rooms I have been in, but the bathroom, vanity area was good -sized.  The room was clean, but this is not a good area of Dallas. I saw some rough people walking around, no one bothered us, but was not comfortable. It was ok for one night, but I would not stay here again.SammyMore</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r4828551-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1095,6 +1415,39 @@
   </si>
   <si>
     <t>I stayed at this hotel Mar. 31-Apr. 1, 2006.  This is one of the cleanest motels I have ever stayed at.  Also very quiet considering it's close proximity to I-30.  The only noise I heard was someone's car alarm and the people walking above me one morning.  The continental breakfast looked adequate, although not being a breakfast eater, I did not try it.  The lobby coffee was good and they also provided an in-room coffemaker with both decaf and caffienated.  Great beds!  I definitely would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r4280823-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>4280823</t>
+  </si>
+  <si>
+    <t>12/22/2005</t>
+  </si>
+  <si>
+    <t>Clean, Nice staff, rough neighborhood</t>
+  </si>
+  <si>
+    <t>Very nice receptionist greeted us and checked us in quickly.  Rooms are recently remodeled, very clean. Neighborhood appears somewhat rough, and highway noise is considerable (as well as a train somewhere near by). Bring earplugs.  High speed wireless internet acess worked well. Stay a night, then move on.</t>
+  </si>
+  <si>
+    <t>December 2005</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98685-r4100317-Stay_Express_Inn_Dallas_Fair_Park_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>4100317</t>
+  </si>
+  <si>
+    <t>11/07/2005</t>
+  </si>
+  <si>
+    <t>One of the nicest, clean motels we've stayed in for a long time</t>
+  </si>
+  <si>
+    <t>I'd highly recommend a stay at this LaQuinta! We were on a three week trip, staying at six different motels along the way. On our way home, we stayed only one night here and it was the nicest, cleanest motel of all we have stayed in for at least the last five years. I would have liked to have had more time at this motel. Clean, clean, clean!!!!</t>
   </si>
 </sst>
 </file>
@@ -1599,48 +1952,40 @@
       <c r="A2" t="n">
         <v>5193</v>
       </c>
-      <c r="B2" t="n">
-        <v>177925</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
-        <v>52</v>
-      </c>
       <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -1650,118 +1995,124 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5193</v>
       </c>
-      <c r="B3" t="n">
-        <v>703</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>60</v>
       </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>61</v>
       </c>
-      <c r="O3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" t="s"/>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5193</v>
       </c>
-      <c r="B4" t="n">
-        <v>177926</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1775,33 +2126,29 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5193</v>
       </c>
-      <c r="B5" t="n">
-        <v>113571</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
         <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
         <v>73</v>
@@ -1816,13 +2163,13 @@
         <v>76</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
         <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1833,61 +2180,53 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
         <v>78</v>
-      </c>
-      <c r="X5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5193</v>
       </c>
-      <c r="B6" t="n">
-        <v>104826</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>82</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>83</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>84</v>
       </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>87</v>
-      </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1898,73 +2237,61 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>78</v>
-      </c>
-      <c r="X6" t="s">
-        <v>79</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5193</v>
       </c>
-      <c r="B7" t="n">
-        <v>177927</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
         <v>91</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>96</v>
-      </c>
-      <c r="O7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
       <c r="R7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
@@ -1973,414 +2300,364 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>97</v>
-      </c>
-      <c r="X7" t="s">
-        <v>98</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5193</v>
       </c>
-      <c r="B8" t="n">
-        <v>6053</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>106</v>
-      </c>
-      <c r="O8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>107</v>
-      </c>
-      <c r="X8" t="s">
-        <v>108</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5193</v>
       </c>
-      <c r="B9" t="n">
-        <v>177928</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="X9" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5193</v>
       </c>
-      <c r="B10" t="n">
-        <v>177929</v>
-      </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="O10" t="s">
-        <v>88</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="X10" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="Y10" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5193</v>
       </c>
-      <c r="B11" t="n">
-        <v>177930</v>
-      </c>
-      <c r="C11" t="s">
-        <v>130</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>133</v>
-      </c>
-      <c r="K11" t="s">
-        <v>134</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="K11" t="s"/>
       <c r="L11" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="X11" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="Y11" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5193</v>
       </c>
-      <c r="B12" t="n">
-        <v>38063</v>
-      </c>
-      <c r="C12" t="s">
-        <v>140</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="X12" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="Y12" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5193</v>
       </c>
-      <c r="B13" t="n">
-        <v>177931</v>
-      </c>
-      <c r="C13" t="s">
-        <v>150</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2392,219 +2669,199 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="X13" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="Y13" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5193</v>
       </c>
-      <c r="B14" t="n">
-        <v>177932</v>
-      </c>
-      <c r="C14" t="s">
-        <v>160</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="K14" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>71</v>
+      </c>
       <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="X14" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="Y14" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5193</v>
       </c>
-      <c r="B15" t="n">
-        <v>108313</v>
-      </c>
-      <c r="C15" t="s">
-        <v>169</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
         <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>175</v>
-      </c>
-      <c r="O15" t="s">
-        <v>88</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="X15" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="Y15" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5193</v>
       </c>
-      <c r="B16" t="n">
-        <v>177933</v>
-      </c>
-      <c r="C16" t="s">
-        <v>177</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" t="n">
         <v>1</v>
       </c>
-      <c r="S16" t="n">
-        <v>2</v>
-      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>2</v>
@@ -2612,205 +2869,199 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>160</v>
+      </c>
+      <c r="X16" t="s">
+        <v>161</v>
+      </c>
       <c r="Y16" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5193</v>
       </c>
-      <c r="B17" t="n">
-        <v>177179</v>
-      </c>
-      <c r="C17" t="s">
-        <v>184</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>191</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>169</v>
+      </c>
+      <c r="X17" t="s">
+        <v>170</v>
+      </c>
       <c r="Y17" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5193</v>
       </c>
-      <c r="B18" t="n">
-        <v>70551</v>
-      </c>
-      <c r="C18" t="s">
-        <v>193</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="J18" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="O18" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>178</v>
+      </c>
+      <c r="X18" t="s">
+        <v>179</v>
+      </c>
       <c r="Y18" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5193</v>
       </c>
-      <c r="B19" t="n">
-        <v>2379</v>
-      </c>
-      <c r="C19" t="s">
-        <v>200</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R19" t="n">
         <v>5</v>
@@ -2825,625 +3076,583 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>186</v>
+      </c>
+      <c r="X19" t="s">
+        <v>187</v>
+      </c>
       <c r="Y19" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5193</v>
       </c>
-      <c r="B20" t="n">
-        <v>70551</v>
-      </c>
-      <c r="C20" t="s">
-        <v>193</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="J20" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s">
-        <v>88</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>195</v>
+      </c>
+      <c r="X20" t="s">
+        <v>196</v>
+      </c>
       <c r="Y20" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5193</v>
       </c>
-      <c r="B21" t="n">
-        <v>177934</v>
-      </c>
-      <c r="C21" t="s">
-        <v>212</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="J21" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="K21" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="O21" t="s">
-        <v>88</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>204</v>
+      </c>
+      <c r="X21" t="s">
+        <v>205</v>
+      </c>
       <c r="Y21" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5193</v>
       </c>
-      <c r="B22" t="n">
-        <v>61655</v>
-      </c>
-      <c r="C22" t="s">
-        <v>220</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="J22" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="K22" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="O22" t="s">
-        <v>54</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>213</v>
+      </c>
+      <c r="X22" t="s">
+        <v>214</v>
+      </c>
       <c r="Y22" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5193</v>
       </c>
-      <c r="B23" t="n">
-        <v>177935</v>
-      </c>
-      <c r="C23" t="s">
-        <v>227</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="J23" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="K23" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>221</v>
+      </c>
+      <c r="X23" t="s">
+        <v>222</v>
+      </c>
       <c r="Y23" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5193</v>
       </c>
-      <c r="B24" t="n">
-        <v>177936</v>
-      </c>
-      <c r="C24" t="s">
-        <v>234</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="J24" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="K24" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
-      </c>
-      <c r="N24" t="s">
-        <v>240</v>
-      </c>
-      <c r="O24" t="s">
-        <v>70</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
         <v>4</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>221</v>
+      </c>
+      <c r="X24" t="s">
+        <v>222</v>
+      </c>
       <c r="Y24" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5193</v>
       </c>
-      <c r="B25" t="n">
-        <v>177937</v>
-      </c>
-      <c r="C25" t="s">
-        <v>241</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="J25" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="K25" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="P25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>221</v>
+      </c>
+      <c r="X25" t="s">
+        <v>222</v>
+      </c>
       <c r="Y25" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>5193</v>
       </c>
-      <c r="B26" t="n">
-        <v>101489</v>
-      </c>
-      <c r="C26" t="s">
-        <v>248</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="J26" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="K26" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
-      </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>242</v>
+      </c>
+      <c r="O26" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>5193</v>
       </c>
-      <c r="B27" t="n">
-        <v>177938</v>
-      </c>
-      <c r="C27" t="s">
-        <v>254</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="J27" t="s">
-        <v>257</v>
-      </c>
-      <c r="K27" t="s">
-        <v>258</v>
-      </c>
-      <c r="L27" t="s">
-        <v>259</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="O27" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S27" t="n">
         <v>4</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
-      <c r="Y27" t="s">
-        <v>259</v>
-      </c>
+      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>5193</v>
       </c>
-      <c r="B28" t="n">
-        <v>70551</v>
-      </c>
-      <c r="C28" t="s">
-        <v>193</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="J28" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="K28" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="L28" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="O28" t="s">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3451,70 +3660,66 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>5193</v>
       </c>
-      <c r="B29" t="n">
-        <v>82778</v>
-      </c>
-      <c r="C29" t="s">
-        <v>267</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="J29" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="O29" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3522,54 +3727,46 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>5193</v>
       </c>
-      <c r="B30" t="n">
-        <v>177939</v>
-      </c>
-      <c r="C30" t="s">
-        <v>275</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="J30" t="s">
-        <v>278</v>
-      </c>
-      <c r="K30" t="s">
-        <v>279</v>
-      </c>
-      <c r="L30" t="s">
-        <v>280</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="O30" t="s">
-        <v>54</v>
+        <v>262</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3581,7 +3778,7 @@
         <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -3592,61 +3789,55 @@
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
-      <c r="Y30" t="s">
-        <v>280</v>
-      </c>
+      <c r="Y30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>5193</v>
       </c>
-      <c r="B31" t="n">
-        <v>177940</v>
-      </c>
-      <c r="C31" t="s">
-        <v>282</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="J31" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="K31" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="L31" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R31" t="n">
         <v>5</v>
@@ -3664,66 +3855,58 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>5193</v>
       </c>
-      <c r="B32" t="n">
-        <v>70551</v>
-      </c>
-      <c r="C32" t="s">
-        <v>193</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="J32" t="s">
-        <v>290</v>
-      </c>
-      <c r="K32" t="s">
-        <v>291</v>
-      </c>
-      <c r="L32" t="s">
-        <v>292</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="O32" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
       </c>
       <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
         <v>2</v>
       </c>
-      <c r="R32" t="n">
-        <v>3</v>
-      </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
@@ -3734,207 +3917,179 @@
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
-      <c r="Y32" t="s">
-        <v>292</v>
-      </c>
+      <c r="Y32" t="s"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>5193</v>
       </c>
-      <c r="B33" t="n">
-        <v>177941</v>
-      </c>
-      <c r="C33" t="s">
-        <v>294</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="J33" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="K33" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="L33" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="O33" t="s">
-        <v>54</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
-      <c r="R33" t="n">
-        <v>3</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1</v>
-      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>3</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>5193</v>
       </c>
-      <c r="B34" t="n">
-        <v>1367</v>
-      </c>
-      <c r="C34" t="s">
-        <v>301</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="J34" t="s">
-        <v>304</v>
-      </c>
-      <c r="K34" t="s">
-        <v>305</v>
-      </c>
-      <c r="L34" t="s">
-        <v>306</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="O34" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
-      <c r="Y34" t="s">
-        <v>306</v>
-      </c>
+      <c r="Y34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>5193</v>
       </c>
-      <c r="B35" t="n">
-        <v>177942</v>
-      </c>
-      <c r="C35" t="s">
-        <v>308</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="J35" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="O35" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
         <v>3</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
@@ -3946,70 +4101,66 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>5193</v>
       </c>
-      <c r="B36" t="n">
-        <v>177943</v>
-      </c>
-      <c r="C36" t="s">
-        <v>316</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="J36" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="K36" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="L36" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="O36" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="P36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -4017,70 +4168,66 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>5193</v>
       </c>
-      <c r="B37" t="n">
-        <v>177944</v>
-      </c>
-      <c r="C37" t="s">
-        <v>324</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="J37" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="K37" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="O37" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
       </c>
       <c r="Q37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R37" t="n">
         <v>5</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -4088,70 +4235,66 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>5193</v>
       </c>
-      <c r="B38" t="n">
-        <v>177945</v>
-      </c>
-      <c r="C38" t="s">
-        <v>331</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="J38" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="K38" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="L38" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="O38" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R38" t="n">
         <v>4</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4159,70 +4302,66 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>5193</v>
       </c>
-      <c r="B39" t="n">
-        <v>177946</v>
-      </c>
-      <c r="C39" t="s">
-        <v>339</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="J39" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="K39" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="L39" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="O39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4230,72 +4369,1874 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>5193</v>
       </c>
-      <c r="B40" t="n">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>347</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="J40" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="K40" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="L40" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>315</v>
+      </c>
+      <c r="O40" t="s">
+        <v>61</v>
+      </c>
       <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
         <v>3</v>
       </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="s"/>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>316</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>317</v>
+      </c>
+      <c r="J41" t="s">
+        <v>318</v>
+      </c>
+      <c r="K41" t="s">
+        <v>319</v>
+      </c>
+      <c r="L41" t="s">
+        <v>320</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>321</v>
+      </c>
+      <c r="O41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>322</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>323</v>
+      </c>
+      <c r="J42" t="s">
+        <v>324</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>321</v>
+      </c>
+      <c r="O42" t="s">
+        <v>71</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>325</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>326</v>
+      </c>
+      <c r="J43" t="s">
+        <v>324</v>
+      </c>
+      <c r="K43" t="s">
+        <v>327</v>
+      </c>
+      <c r="L43" t="s">
+        <v>328</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>321</v>
+      </c>
+      <c r="O43" t="s">
+        <v>71</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>329</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>330</v>
+      </c>
+      <c r="J44" t="s">
+        <v>331</v>
+      </c>
+      <c r="K44" t="s">
+        <v>332</v>
+      </c>
+      <c r="L44" t="s">
+        <v>333</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>334</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>335</v>
+      </c>
+      <c r="J45" t="s">
+        <v>336</v>
+      </c>
+      <c r="K45" t="s">
+        <v>337</v>
+      </c>
+      <c r="L45" t="s">
+        <v>338</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>339</v>
+      </c>
+      <c r="O45" t="s">
+        <v>61</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>340</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>341</v>
+      </c>
+      <c r="J46" t="s">
+        <v>342</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>343</v>
+      </c>
+      <c r="O46" t="s">
+        <v>262</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>344</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>345</v>
+      </c>
+      <c r="J47" t="s">
+        <v>346</v>
+      </c>
+      <c r="K47" t="s">
+        <v>347</v>
+      </c>
+      <c r="L47" t="s">
+        <v>348</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>343</v>
+      </c>
+      <c r="O47" t="s">
+        <v>262</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>349</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>350</v>
+      </c>
+      <c r="J48" t="s">
+        <v>351</v>
+      </c>
+      <c r="K48" t="s">
         <v>352</v>
+      </c>
+      <c r="L48" t="s">
+        <v>353</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>354</v>
+      </c>
+      <c r="O48" t="s">
+        <v>262</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>356</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>357</v>
+      </c>
+      <c r="J49" t="s">
+        <v>358</v>
+      </c>
+      <c r="K49" t="s">
+        <v>359</v>
+      </c>
+      <c r="L49" t="s">
+        <v>360</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>354</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>362</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>363</v>
+      </c>
+      <c r="J50" t="s">
+        <v>364</v>
+      </c>
+      <c r="K50" t="s">
+        <v>365</v>
+      </c>
+      <c r="L50" t="s">
+        <v>366</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>367</v>
+      </c>
+      <c r="O50" t="s">
+        <v>71</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>368</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>369</v>
+      </c>
+      <c r="J51" t="s">
+        <v>370</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>367</v>
+      </c>
+      <c r="O51" t="s">
+        <v>71</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>371</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>372</v>
+      </c>
+      <c r="J52" t="s">
+        <v>373</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>367</v>
+      </c>
+      <c r="O52" t="s">
+        <v>111</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>374</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>375</v>
+      </c>
+      <c r="J53" t="s">
+        <v>376</v>
+      </c>
+      <c r="K53" t="s">
+        <v>377</v>
+      </c>
+      <c r="L53" t="s">
+        <v>378</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>367</v>
+      </c>
+      <c r="O53" t="s">
+        <v>262</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>380</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>381</v>
+      </c>
+      <c r="J54" t="s">
+        <v>382</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>383</v>
+      </c>
+      <c r="O54" t="s">
+        <v>111</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>384</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>385</v>
+      </c>
+      <c r="J55" t="s">
+        <v>386</v>
+      </c>
+      <c r="K55" t="s">
+        <v>387</v>
+      </c>
+      <c r="L55" t="s">
+        <v>388</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>389</v>
+      </c>
+      <c r="O55" t="s">
+        <v>71</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>390</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>391</v>
+      </c>
+      <c r="J56" t="s">
+        <v>392</v>
+      </c>
+      <c r="K56" t="s">
+        <v>393</v>
+      </c>
+      <c r="L56" t="s">
+        <v>394</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>395</v>
+      </c>
+      <c r="O56" t="s">
+        <v>91</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>396</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>397</v>
+      </c>
+      <c r="J57" t="s">
+        <v>398</v>
+      </c>
+      <c r="K57" t="s">
+        <v>399</v>
+      </c>
+      <c r="L57" t="s">
+        <v>400</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>401</v>
+      </c>
+      <c r="O57" t="s">
+        <v>111</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>402</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>403</v>
+      </c>
+      <c r="J58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L58" t="s">
+        <v>406</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>407</v>
+      </c>
+      <c r="O58" t="s">
+        <v>61</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>409</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>410</v>
+      </c>
+      <c r="J59" t="s">
+        <v>411</v>
+      </c>
+      <c r="K59" t="s">
+        <v>412</v>
+      </c>
+      <c r="L59" t="s">
+        <v>413</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>414</v>
+      </c>
+      <c r="O59" t="s">
+        <v>61</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>416</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>417</v>
+      </c>
+      <c r="J60" t="s">
+        <v>418</v>
+      </c>
+      <c r="K60" t="s">
+        <v>419</v>
+      </c>
+      <c r="L60" t="s">
+        <v>420</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>421</v>
+      </c>
+      <c r="O60" t="s">
+        <v>71</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>423</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>424</v>
+      </c>
+      <c r="J61" t="s">
+        <v>425</v>
+      </c>
+      <c r="K61" t="s">
+        <v>426</v>
+      </c>
+      <c r="L61" t="s">
+        <v>427</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>428</v>
+      </c>
+      <c r="O61" t="s">
+        <v>71</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>429</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>430</v>
+      </c>
+      <c r="J62" t="s">
+        <v>431</v>
+      </c>
+      <c r="K62" t="s">
+        <v>432</v>
+      </c>
+      <c r="L62" t="s">
+        <v>433</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>434</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>435</v>
+      </c>
+      <c r="J63" t="s">
+        <v>436</v>
+      </c>
+      <c r="K63" t="s">
+        <v>437</v>
+      </c>
+      <c r="L63" t="s">
+        <v>438</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>439</v>
+      </c>
+      <c r="O63" t="s">
+        <v>71</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>440</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>441</v>
+      </c>
+      <c r="J64" t="s">
+        <v>442</v>
+      </c>
+      <c r="K64" t="s">
+        <v>443</v>
+      </c>
+      <c r="L64" t="s">
+        <v>444</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>445</v>
+      </c>
+      <c r="O64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>447</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>448</v>
+      </c>
+      <c r="J65" t="s">
+        <v>449</v>
+      </c>
+      <c r="K65" t="s">
+        <v>450</v>
+      </c>
+      <c r="L65" t="s">
+        <v>451</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>452</v>
+      </c>
+      <c r="O65" t="s">
+        <v>61</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>454</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>455</v>
+      </c>
+      <c r="J66" t="s">
+        <v>456</v>
+      </c>
+      <c r="K66" t="s">
+        <v>457</v>
+      </c>
+      <c r="L66" t="s">
+        <v>458</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>459</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>460</v>
+      </c>
+      <c r="J67" t="s">
+        <v>461</v>
+      </c>
+      <c r="K67" t="s">
+        <v>462</v>
+      </c>
+      <c r="L67" t="s">
+        <v>463</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>464</v>
+      </c>
+      <c r="O67" t="s">
+        <v>111</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5193</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>465</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>466</v>
+      </c>
+      <c r="J68" t="s">
+        <v>467</v>
+      </c>
+      <c r="K68" t="s">
+        <v>468</v>
+      </c>
+      <c r="L68" t="s">
+        <v>469</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
